--- a/repid.xlsx
+++ b/repid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iriscaglayan/Desktop/interactive maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E30DA1-91A9-6C45-B7E8-E490C9A5DCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BBBD92-3A1D-5347-8776-E635D7184050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="2560" windowWidth="30240" windowHeight="17040" xr2:uid="{64FAF4F8-A362-0E4D-8934-8283BE4E4B67}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="bbib16" localSheetId="0">Sheet1!$D$42</definedName>
-    <definedName name="bbib17" localSheetId="0">Sheet1!$D$61</definedName>
-    <definedName name="bbib18" localSheetId="0">Sheet1!$D$62</definedName>
-    <definedName name="bbib19" localSheetId="0">Sheet1!$D$68</definedName>
-    <definedName name="bbib20" localSheetId="0">Sheet1!$D$70</definedName>
-    <definedName name="bbib21" localSheetId="0">Sheet1!$D$71</definedName>
+    <definedName name="bbib16" localSheetId="0">Sheet1!$D$40</definedName>
+    <definedName name="bbib17" localSheetId="0">Sheet1!$D$59</definedName>
+    <definedName name="bbib18" localSheetId="0">Sheet1!$D$60</definedName>
+    <definedName name="bbib19" localSheetId="0">Sheet1!$D$66</definedName>
+    <definedName name="bbib20" localSheetId="0">Sheet1!$D$68</definedName>
+    <definedName name="bbib21" localSheetId="0">Sheet1!$D$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +49,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A65" authorId="0" shapeId="0" xr:uid="{70239CD0-DEAC-6048-928C-19A66F33895E}">
+    <comment ref="A63" authorId="0" shapeId="0" xr:uid="{70239CD0-DEAC-6048-928C-19A66F33895E}">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A73" authorId="0" shapeId="0" xr:uid="{5FCABA35-DCA4-1641-A1CA-6D7191EEA564}">
+    <comment ref="A71" authorId="0" shapeId="0" xr:uid="{5FCABA35-DCA4-1641-A1CA-6D7191EEA564}">
       <text>
         <r>
           <rPr>
@@ -87,7 +87,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A87" authorId="0" shapeId="0" xr:uid="{007CE645-1C3B-7F4F-AB9F-69C60D6DA1ED}">
+    <comment ref="A85" authorId="0" shapeId="0" xr:uid="{007CE645-1C3B-7F4F-AB9F-69C60D6DA1ED}">
       <text>
         <r>
           <rPr>
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="324">
   <si>
     <t>ABCD3</t>
   </si>
@@ -403,9 +403,6 @@
     <t>ATXN8OS</t>
   </si>
   <si>
-    <t>DIP2B</t>
-  </si>
-  <si>
     <t>FMR1</t>
   </si>
   <si>
@@ -461,9 +458,6 @@
   </si>
   <si>
     <t>Progressive myoclonic epilepsy type 1</t>
-  </si>
-  <si>
-    <t>Facioscapulohumeral muscular dystrophy 1</t>
   </si>
   <si>
     <t>Spinocerebellar ataxia type 37</t>
@@ -566,9 +560,6 @@
     <t>Promoter</t>
   </si>
   <si>
-    <t>Subtelomeric</t>
-  </si>
-  <si>
     <t>5' UTR intron</t>
   </si>
   <si>
@@ -634,9 +625,6 @@
     <t>≤26</t>
   </si>
   <si>
-    <t>≥12</t>
-  </si>
-  <si>
     <t>9-249</t>
   </si>
   <si>
@@ -750,15 +738,6 @@
     <t>≥75</t>
   </si>
   <si>
-    <t>10-11</t>
-  </si>
-  <si>
-    <t>≤9</t>
-  </si>
-  <si>
-    <t>&gt;350</t>
-  </si>
-  <si>
     <t>≥14</t>
   </si>
   <si>
@@ -768,12 +747,6 @@
     <t>680-1500</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/books/NBK1443/#:~:text=scapulo%2Dperoneal%20syndromes.%22-,Prevalence,-The%20estimated%20prevalence</t>
-  </si>
-  <si>
-    <t>https://omim.org/entry/136630</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oculopharyngodistal myopathy 2 </t>
   </si>
   <si>
@@ -816,9 +789,6 @@
     <t>https://omim.org/entry/609637</t>
   </si>
   <si>
-    <t>D4Z4 repeat</t>
-  </si>
-  <si>
     <t xml:space="preserve">VACTERL </t>
   </si>
   <si>
@@ -871,9 +841,6 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/books/NBK1333/#:~:text=spinal%20muscular%20atrophy.-,Prevalence,-SBMA%20has%20an</t>
-  </si>
-  <si>
-    <t>https://www.ncbi.nlm.nih.gov/books/NBK1140/#:~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of</t>
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/books/NBK541729/#:~:text=the%20transmitting%20parent.-,Prevalence,-To%20date%2C%2066</t>
@@ -938,30 +905,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Pierre Robin sequence with cleft mandible and limb anomalies (OMIM </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FF1155CC"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>268305</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>FMR1</t>
     </r>
     <r>
@@ -1070,9 +1013,6 @@
     <t>2-3</t>
   </si>
   <si>
-    <t>6-23</t>
-  </si>
-  <si>
     <t>3-12</t>
   </si>
   <si>
@@ -1247,9 +1187,6 @@
     <t>AAAGG (Variable Penetrance)</t>
   </si>
   <si>
-    <t>Intellectual developmental disorder</t>
-  </si>
-  <si>
     <t>https://www.ncbi.nlm.nih.gov/books/NBK1491/#:~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more, https://www.nature.com/articles/s41572-019-0074-3</t>
   </si>
   <si>
@@ -1273,6 +1210,12 @@
   </si>
   <si>
     <t>https://www.ncbi.nlm.nih.gov/books/NBK1256/#:~:text=ADCA%20type%20II.-,Prevalence,-The%20prevalence%20is &amp;  https://www.nature.com/articles/s41572-019-0074-3 &amp; https://pmc.ncbi.nlm.nih.gov/articles/PMC6749803/</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/books/NBK1140/#:~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of &amp; https://www.nature.com/articles/s41572-019-0074-3</t>
+  </si>
+  <si>
+    <t>Pierre Robin sequence with cleft mandible and limb anomalies</t>
   </si>
 </sst>
 </file>
@@ -1847,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D726A56B-E6A4-FC48-82D9-EBC661D15C56}">
-  <dimension ref="A1:H979"/>
+  <dimension ref="A1:H977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1871,16 +1814,16 @@
         <v>64</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>66</v>
@@ -1897,25 +1840,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1923,25 +1866,25 @@
         <v>92</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F3" s="12">
         <v>45473</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1949,22 +1892,22 @@
         <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>47</v>
@@ -1975,25 +1918,25 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2001,7 +1944,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>55</v>
@@ -2010,16 +1953,16 @@
         <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F6" s="22">
         <v>12</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2027,25 +1970,25 @@
         <v>94</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2053,25 +1996,25 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F8" s="22" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="22" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -2079,25 +2022,25 @@
         <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
@@ -2105,25 +2048,25 @@
         <v>96</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
@@ -2131,25 +2074,25 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F11" s="8">
         <v>45500</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="42" x14ac:dyDescent="0.15">
@@ -2157,7 +2100,7 @@
         <v>97</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>42</v>
@@ -2166,16 +2109,16 @@
         <v>70</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -2183,22 +2126,22 @@
         <v>5</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>43</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>44</v>
@@ -2209,7 +2152,7 @@
         <v>45</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>42</v>
@@ -2218,16 +2161,16 @@
         <v>71</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F14" s="22">
         <v>0</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.15">
@@ -2235,7 +2178,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>42</v>
@@ -2244,16 +2187,16 @@
         <v>72</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -2261,22 +2204,22 @@
         <v>7</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>252</v>
+        <v>322</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F16" s="22" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H16" s="22" t="s">
         <v>49</v>
@@ -2287,7 +2230,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>42</v>
@@ -2296,16 +2239,16 @@
         <v>73</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -2313,7 +2256,7 @@
         <v>9</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>1</v>
@@ -2322,810 +2265,810 @@
         <v>74</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H18" s="22" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>233</v>
+      <c r="A19" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>211</v>
+        <v>150</v>
+      </c>
+      <c r="F19" s="22">
+        <v>0</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>168</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>253</v>
+        <v>75</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>51</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>260</v>
+        <v>98</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>249</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A24" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F23" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G24" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="H24" s="22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="42" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="D25" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F25" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="22" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A26" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>122</v>
+      <c r="B26" s="6" t="s">
+        <v>226</v>
       </c>
       <c r="C26" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>319</v>
+        <v>168</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F27" s="22" t="s">
-        <v>178</v>
+        <v>151</v>
+      </c>
+      <c r="F27" s="22">
+        <v>15</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>236</v>
+      <c r="B28" s="9" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F28" s="22" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>17</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>122</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" s="22">
-        <v>15</v>
+        <v>152</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>123</v>
+        <v>18</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>250</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>220</v>
+        <v>81</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="42" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>124</v>
+        <v>19</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>227</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>80</v>
+        <v>212</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>53</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>262</v>
+        <v>101</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>81</v>
+        <v>213</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="22" t="s">
-        <v>180</v>
+        <v>153</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>262</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>54</v>
+        <v>168</v>
+      </c>
+      <c r="H32" s="22">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>263</v>
+        <v>20</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H34" s="22">
-        <v>8</v>
+        <v>168</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>223</v>
+        <v>82</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F35" s="12" t="s">
-        <v>276</v>
+        <v>137</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>177</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>224</v>
+        <v>83</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>266</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>134</v>
+        <v>23</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="22" t="s">
-        <v>181</v>
+        <v>138</v>
+      </c>
+      <c r="F37" s="22">
+        <v>10</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H37" s="22" t="s">
-        <v>199</v>
+        <v>168</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>133</v>
+        <v>24</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>278</v>
+        <v>155</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>164</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>125</v>
+        <v>103</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>228</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>84</v>
+      <c r="D39" s="27" t="s">
+        <v>85</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="22">
-        <v>10</v>
+        <v>155</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>178</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>126</v>
+        <v>25</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>229</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>85</v>
+      <c r="D40" s="27" t="s">
+        <v>86</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>167</v>
+        <v>149</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>266</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="22" t="s">
-        <v>57</v>
+        <v>168</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="28" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>85</v>
+        <v>289</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>182</v>
+        <v>140</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>239</v>
+        <v>104</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>86</v>
+        <v>288</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>240</v>
+        <v>297</v>
       </c>
       <c r="C43" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="22">
+        <v>0</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="C44" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>302</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="22" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D44" s="27" t="s">
-        <v>301</v>
+        <v>231</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>281</v>
+        <v>158</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>179</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>313</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>87</v>
+      <c r="D45" s="27" t="s">
+        <v>216</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
+        <v>136</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="G45" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>265</v>
+        <v>32</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="F46" s="22" t="s">
-        <v>183</v>
+        <v>138</v>
+      </c>
+      <c r="F46" s="22">
+        <v>17</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>326</v>
+        <v>168</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>242</v>
+        <v>290</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>225</v>
+      <c r="D47" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>283</v>
+        <v>156</v>
+      </c>
+      <c r="F47" s="22">
+        <v>0</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>128</v>
+        <v>31</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>243</v>
+        <v>293</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F48" s="22">
-        <v>17</v>
+        <v>148</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>180</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>303</v>
+        <v>33</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>127</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>304</v>
+        <v>55</v>
+      </c>
+      <c r="D49" s="27" t="s">
+        <v>88</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>159</v>
@@ -3133,362 +3076,320 @@
       <c r="F49" s="22">
         <v>0</v>
       </c>
-      <c r="G49" s="22" t="s">
-        <v>171</v>
+      <c r="G49" s="22">
+        <v>0</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="42" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="28" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>305</v>
+        <v>34</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D50" s="27" t="s">
-        <v>306</v>
+      <c r="D50" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>171</v>
+        <v>308</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>129</v>
+        <v>35</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>88</v>
+        <v>42</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F51" s="22">
-        <v>0</v>
-      </c>
-      <c r="G51" s="22">
-        <v>0</v>
-      </c>
-      <c r="H51" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="G51" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H51" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>130</v>
+        <v>105</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>217</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>89</v>
+      <c r="D52" s="27" t="s">
+        <v>235</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G52" s="22" t="s">
-        <v>321</v>
+        <v>168</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>60</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>218</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F53" s="22">
-        <v>15</v>
+        <v>138</v>
+      </c>
+      <c r="F53" s="22" t="s">
+        <v>61</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H53" s="22">
-        <v>25</v>
+        <v>168</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>226</v>
+        <v>134</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>245</v>
+        <v>91</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F54" s="22" t="s">
-        <v>186</v>
+        <v>138</v>
+      </c>
+      <c r="F54" s="22">
+        <v>0</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="C55" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="22">
+        <v>2</v>
+      </c>
+      <c r="G55" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="28" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G56" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F55" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="G55" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H55" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C56" s="7" t="s">
+      <c r="D57" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F57" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G57" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="22" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+      <c r="A58" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E56" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F56" s="22">
-        <v>0</v>
-      </c>
-      <c r="G56" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14" x14ac:dyDescent="0.15">
-      <c r="A57" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F57" s="22">
-        <v>2</v>
-      </c>
-      <c r="G57" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="28" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
+      <c r="D58" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G58" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="H58" s="22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B58" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H58" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="28" x14ac:dyDescent="0.15">
-      <c r="A59" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="B59" s="6" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>230</v>
+      <c r="D59" s="27" t="s">
+        <v>223</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="F59" s="22" t="s">
-        <v>187</v>
+        <v>155</v>
+      </c>
+      <c r="F59" s="22">
+        <v>15</v>
       </c>
       <c r="G59" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H59" s="22" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="H59" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>137</v>
+        <v>224</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>231</v>
+        <v>55</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>294</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>63</v>
+        <v>138</v>
+      </c>
+      <c r="F60" s="22">
+        <v>10</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H60" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D61" s="27" t="s">
-        <v>232</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="F61" s="22">
-        <v>15</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H61" s="22">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D62" s="29" t="s">
-        <v>307</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="F62" s="22">
-        <v>10</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>171</v>
-      </c>
-      <c r="H62" s="22">
+        <v>168</v>
+      </c>
+      <c r="H60" s="22">
         <v>12</v>
       </c>
     </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A61" s="15"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+    </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A63" s="15"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
+      <c r="E63" s="16"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A64" s="16"/>
+      <c r="A64" s="18"/>
       <c r="C64" s="16"/>
-      <c r="E64" s="16"/>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
@@ -3497,7 +3398,7 @@
       <c r="E65" s="16"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A66" s="18"/>
+      <c r="A66" s="17"/>
       <c r="C66" s="16"/>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
@@ -3507,7 +3408,7 @@
       <c r="E67" s="16"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A68" s="17"/>
+      <c r="A68" s="18"/>
       <c r="C68" s="16"/>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
@@ -3626,15 +3527,15 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E91" s="16"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A92" s="18"/>
-      <c r="C92" s="16"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E93" s="16"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A95" s="18"/>
+      <c r="C95" s="16"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E96" s="16"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" s="18"/>
@@ -3717,7 +3618,7 @@
       <c r="E112" s="16"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A113" s="18"/>
+      <c r="A113" s="19"/>
       <c r="C113" s="16"/>
       <c r="F113" s="24"/>
       <c r="G113" s="24"/>
@@ -3727,7 +3628,7 @@
       <c r="E114" s="16"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A115" s="19"/>
+      <c r="A115" s="18"/>
       <c r="C115" s="16"/>
       <c r="F115" s="24"/>
       <c r="G115" s="24"/>
@@ -3787,7 +3688,7 @@
       <c r="E126" s="16"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A127" s="18"/>
+      <c r="A127" s="16"/>
       <c r="C127" s="16"/>
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
@@ -3807,7 +3708,7 @@
       <c r="E130" s="16"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A131" s="16"/>
+      <c r="A131" s="20"/>
       <c r="C131" s="16"/>
       <c r="F131" s="24"/>
       <c r="G131" s="24"/>
@@ -3817,32 +3718,39 @@
       <c r="E132" s="16"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A133" s="20"/>
+      <c r="A133" s="16"/>
       <c r="C133" s="16"/>
       <c r="F133" s="24"/>
       <c r="G133" s="24"/>
       <c r="H133" s="24"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B134" s="20"/>
+      <c r="C134" s="21"/>
       <c r="E134" s="16"/>
+      <c r="F134" s="26"/>
+      <c r="G134" s="26"/>
+      <c r="H134" s="26"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A135" s="16"/>
-      <c r="C135" s="16"/>
-      <c r="F135" s="24"/>
-      <c r="G135" s="24"/>
-      <c r="H135" s="24"/>
+      <c r="A135" s="21"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="21"/>
+      <c r="E135" s="20"/>
+      <c r="F135" s="26"/>
+      <c r="G135" s="26"/>
+      <c r="H135" s="26"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A136" s="21"/>
       <c r="B136" s="20"/>
       <c r="C136" s="21"/>
-      <c r="E136" s="16"/>
+      <c r="E136" s="20"/>
       <c r="F136" s="26"/>
       <c r="G136" s="26"/>
       <c r="H136" s="26"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A137" s="21"/>
       <c r="B137" s="20"/>
       <c r="C137" s="21"/>
       <c r="E137" s="20"/>
@@ -3860,6 +3768,7 @@
       <c r="H138" s="26"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A139" s="21"/>
       <c r="B139" s="20"/>
       <c r="C139" s="21"/>
       <c r="E139" s="20"/>
@@ -3877,25 +3786,19 @@
       <c r="H140" s="26"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A141" s="21"/>
-      <c r="B141" s="20"/>
-      <c r="C141" s="21"/>
       <c r="E141" s="20"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
+      <c r="F141" s="24"/>
+      <c r="G141" s="24"/>
+      <c r="H141" s="24"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A142" s="21"/>
-      <c r="B142" s="20"/>
-      <c r="C142" s="21"/>
-      <c r="E142" s="20"/>
-      <c r="F142" s="26"/>
-      <c r="G142" s="26"/>
-      <c r="H142" s="26"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="24"/>
+      <c r="G142" s="24"/>
+      <c r="H142" s="24"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E143" s="20"/>
+      <c r="E143" s="16"/>
       <c r="F143" s="24"/>
       <c r="G143" s="24"/>
       <c r="H143" s="24"/>
@@ -8898,24 +8801,12 @@
       <c r="G976" s="24"/>
       <c r="H976" s="24"/>
     </row>
-    <row r="977" spans="5:8" x14ac:dyDescent="0.15">
+    <row r="977" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E977" s="16"/>
-      <c r="F977" s="24"/>
-      <c r="G977" s="24"/>
-      <c r="H977" s="24"/>
-    </row>
-    <row r="978" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E978" s="16"/>
-      <c r="F978" s="24"/>
-      <c r="G978" s="24"/>
-      <c r="H978" s="24"/>
-    </row>
-    <row r="979" spans="5:8" x14ac:dyDescent="0.15">
-      <c r="E979" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="A1:C62 E2:E63 F1:H62">
+  <conditionalFormatting sqref="A1:C60 E2:E61 F1:H60">
     <cfRule type="containsBlanks" dxfId="0" priority="15">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
@@ -8928,54 +8819,54 @@
     <hyperlink ref="D13" r:id="rId5" location=":~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence" display="https://www.ncbi.nlm.nih.gov/books/NBK1175/#:~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence" xr:uid="{D225C22A-94FA-7F46-8890-F5A065009635}"/>
     <hyperlink ref="D17" r:id="rId6" location=":~:text=variant%20in%20VCP.-,Prevalence,-Prevalence%20appears%20to" xr:uid="{18E56BD3-8D7E-C648-8216-1116C5AFE241}"/>
     <hyperlink ref="D18" r:id="rId7" location=":~:text=longer%20be%20used.-,Prevalence,-EPM1%20has%20the" xr:uid="{7A01F5B4-F007-954A-9D39-6B00742D8302}"/>
-    <hyperlink ref="D20" r:id="rId8" location=":~:text=the%20transmitting%20parent.-,Prevalence,-To%20date%2C%2066" xr:uid="{FB289A98-CDE9-584E-A386-B336BCEACE4B}"/>
-    <hyperlink ref="D22" r:id="rId9" location=":~:text=al%202015%5D.-,Prevalence,-Estimates%20of%20the" xr:uid="{7CE07B54-1E80-A74F-A605-C42206FAB213}"/>
-    <hyperlink ref="D23" r:id="rId10" xr:uid="{E4499C50-0F4B-7741-82A6-16CDA839D5D0}"/>
-    <hyperlink ref="D16" r:id="rId11" location=":~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" xr:uid="{51A202AC-CC99-A849-837C-FD9410C84F43}"/>
-    <hyperlink ref="D24" r:id="rId12" location=":~:text=%2Drelated%20ataxia.-,Prevalence,-The%20prevalence%20of" xr:uid="{A4684C2C-1D3C-AA4C-A9D2-C5CD7A93BBAF}"/>
-    <hyperlink ref="D26" r:id="rId13" location=":~:text=only%20one%20generation.-,Prevalence,-The%20prevalence%20of" xr:uid="{71E6A67D-64ED-D942-8965-FB3A4DD59658}"/>
-    <hyperlink ref="D29" r:id="rId14" location=":~:text=involving%20CREBBP.-,Prevalence,-The%20birth%20prevalence" xr:uid="{04AFB5B0-A6FF-CA43-9185-7736B0A19BAC}"/>
-    <hyperlink ref="D31" r:id="rId15" location=":~:text=to%20as%20HD2.-,Prevalence,-Although%20rare%2C%20HDL2" xr:uid="{21F86D3A-5351-7C4D-8051-0FFAD643B3D2}"/>
-    <hyperlink ref="D32" r:id="rId16" xr:uid="{0F5B75AF-5900-E241-A711-9F2B72CC3B0E}"/>
-    <hyperlink ref="D33" r:id="rId17" xr:uid="{272579D8-E456-754C-8B2C-98318A18C0AF}"/>
-    <hyperlink ref="D37" r:id="rId18" xr:uid="{1F724DB7-253F-2D42-9EAE-C91B0558F7A6}"/>
-    <hyperlink ref="D36" r:id="rId19" xr:uid="{97B4DBF4-817E-6B4A-9DE3-E76AA31701A4}"/>
-    <hyperlink ref="D38" r:id="rId20" xr:uid="{F2447E3D-FD10-444A-859D-DB8F1BCC0E14}"/>
-    <hyperlink ref="D39" r:id="rId21" location=":~:text=technical%20considerations).-,Prevalence,-The%20prevalence%20of" xr:uid="{8B46876B-9B39-A044-A5A7-094B9650FC20}"/>
-    <hyperlink ref="D40" r:id="rId22" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{59FB008D-CDE2-274A-BD5D-91B698ACC648}"/>
+    <hyperlink ref="D19" r:id="rId8" location=":~:text=the%20transmitting%20parent.-,Prevalence,-To%20date%2C%2066" xr:uid="{FB289A98-CDE9-584E-A386-B336BCEACE4B}"/>
+    <hyperlink ref="D20" r:id="rId9" location=":~:text=al%202015%5D.-,Prevalence,-Estimates%20of%20the" xr:uid="{7CE07B54-1E80-A74F-A605-C42206FAB213}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{E4499C50-0F4B-7741-82A6-16CDA839D5D0}"/>
+    <hyperlink ref="D16" r:id="rId11" location=":~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" display="https://www.ncbi.nlm.nih.gov/books/NBK1140/#:~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" xr:uid="{51A202AC-CC99-A849-837C-FD9410C84F43}"/>
+    <hyperlink ref="D22" r:id="rId12" location=":~:text=%2Drelated%20ataxia.-,Prevalence,-The%20prevalence%20of" xr:uid="{A4684C2C-1D3C-AA4C-A9D2-C5CD7A93BBAF}"/>
+    <hyperlink ref="D24" r:id="rId13" location=":~:text=only%20one%20generation.-,Prevalence,-The%20prevalence%20of" xr:uid="{71E6A67D-64ED-D942-8965-FB3A4DD59658}"/>
+    <hyperlink ref="D27" r:id="rId14" location=":~:text=involving%20CREBBP.-,Prevalence,-The%20birth%20prevalence" xr:uid="{04AFB5B0-A6FF-CA43-9185-7736B0A19BAC}"/>
+    <hyperlink ref="D29" r:id="rId15" location=":~:text=to%20as%20HD2.-,Prevalence,-Although%20rare%2C%20HDL2" xr:uid="{21F86D3A-5351-7C4D-8051-0FFAD643B3D2}"/>
+    <hyperlink ref="D30" r:id="rId16" xr:uid="{0F5B75AF-5900-E241-A711-9F2B72CC3B0E}"/>
+    <hyperlink ref="D31" r:id="rId17" xr:uid="{272579D8-E456-754C-8B2C-98318A18C0AF}"/>
+    <hyperlink ref="D35" r:id="rId18" xr:uid="{1F724DB7-253F-2D42-9EAE-C91B0558F7A6}"/>
+    <hyperlink ref="D34" r:id="rId19" xr:uid="{97B4DBF4-817E-6B4A-9DE3-E76AA31701A4}"/>
+    <hyperlink ref="D36" r:id="rId20" xr:uid="{F2447E3D-FD10-444A-859D-DB8F1BCC0E14}"/>
+    <hyperlink ref="D37" r:id="rId21" location=":~:text=technical%20considerations).-,Prevalence,-The%20prevalence%20of" xr:uid="{8B46876B-9B39-A044-A5A7-094B9650FC20}"/>
+    <hyperlink ref="D38" r:id="rId22" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{59FB008D-CDE2-274A-BD5D-91B698ACC648}"/>
     <hyperlink ref="D3" r:id="rId23" display="https://omim.org/entry/309548, " xr:uid="{6CFB2BE3-44BB-2945-AF7D-E4442E292425}"/>
     <hyperlink ref="D7" r:id="rId24" location=":~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more" display="https://www.ncbi.nlm.nih.gov/books/NBK1491/#:~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more" xr:uid="{E8D4A945-4899-C74F-A5C0-C8E369E2B6D4}"/>
     <hyperlink ref="D10" r:id="rId25" location=":~:text=same%20gene.-,Prevalence,-No%20accurate%20data" display="https://www.ncbi.nlm.nih.gov/books/NBK1196/#:~:text=same%20gene.-,Prevalence,-No%20accurate%20data" xr:uid="{35F3CAE4-FB6B-8E4C-A020-496203371765}"/>
-    <hyperlink ref="A65" r:id="rId26" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{61F5811C-05A2-454E-B166-55404D068068}"/>
-    <hyperlink ref="A67" r:id="rId27" display="* Some expanded alleles may be hypermethylated [Cortese et al 2023]." xr:uid="{52DE4118-41EB-2C49-9544-2511EB8D8A7F}"/>
-    <hyperlink ref="A69" r:id="rId28" display="$ Altered gene expression via hypermethylation is mediated by full-penetrance expansions in the following loci: AFF2 [Metsu et al 2014], AFF3 [Jadhav et al 2023], C9orf72 [Gijselinck et al 2016], DIP2B [Winnepenninckx et al 2007], DMPK [Steinbach et al 19" xr:uid="{1E240323-418F-7A4A-931E-954EB4B35D0A}"/>
-    <hyperlink ref="A71" r:id="rId29" display="^ With the exception of one 81-year old individual with 51 CAG repeats who was asymptomatic [Hattori et al 1999]." xr:uid="{D626FAD2-5CCF-F94E-B610-6E795F918A18}"/>
-    <hyperlink ref="A73" r:id="rId30" display="aa = amino acid; AD = autosomal dominant; ALS = amyotrophic lateral sclerosis; AR = autosomal recessive; ORF = open reading frame; MOI = mode of inheritance; UTR = untranslated region; XL = X-linked; Y = yes; N = no; i = interrupted by CAT repeat motifs; " xr:uid="{533221E0-C8F0-E142-A3F0-E78386A9797F}"/>
-    <hyperlink ref="A75" r:id="rId31" display="1. Proportion of pathogenic variants in this gene that are caused by a nucleotide repeat expansion or contraction." xr:uid="{D1FDB48F-5696-4D4F-AF6E-86A1EF929DD8}"/>
-    <hyperlink ref="A79" r:id="rId32" display="3. Includes data derived from the subscription-based professional view of Human Gene Mutation Database [Stenson et al 2020]." xr:uid="{6CC8149E-0BE1-8F44-9053-3B716E8960EB}"/>
-    <hyperlink ref="A81" r:id="rId33" display="4. Cortese et al [2023]." xr:uid="{A991AACB-2397-AE4D-9307-F597DB0CC006}"/>
-    <hyperlink ref="A83" r:id="rId34" display="5. Jadhav et al [2023]." xr:uid="{505DE172-500D-7D43-8D0C-879367D917B3}"/>
-    <hyperlink ref="A85" r:id="rId35" display="6. Tazelaar et al [2020]." xr:uid="{997A546F-626A-BB4F-BB7F-C06751DA6A7C}"/>
-    <hyperlink ref="A87" r:id="rId36" display="7. Penetrance is &lt;100%. Increased penetrance is reported for alleles of 54-250 CTA/CTG repeats. However, reduced penetrance has been reported at all allele sizes [Ranum et al 1999]." xr:uid="{F7534FF3-6556-744D-85D7-8496BA795FE2}"/>
-    <hyperlink ref="A89" r:id="rId37" display="8. Délot et al [1999]." xr:uid="{0D26912C-FE46-FE48-94D0-D235D952B9C1}"/>
-    <hyperlink ref="A91" r:id="rId38" display="9. FSHD results from contraction of the D4Z4 repeat array, which contains tandemly organized copies of 3.3-kilobase long tandem repeat units, on the permissive chromosome 4 haplotype with polyadenylation signal [Lemmers et al 2010]." xr:uid="{005F6AEA-42C2-F844-8C56-05213A59C0EF}"/>
-    <hyperlink ref="A94" r:id="rId39" display="• Normal repeat: CACA-20-nt(2-9)CA-18-nt(1)CACA-20-nt(1)CA-18-nt(1) – note, a normal allele has 5-12 total repeats." xr:uid="{920AD762-EC3C-2E41-A8C7-07583799E388}"/>
-    <hyperlink ref="A96" r:id="rId40" display="For the complete repeat sequence, see Favaro et al [2014]." xr:uid="{4C4568A7-609E-424D-91BB-3856EAFC3979}"/>
-    <hyperlink ref="A98" r:id="rId41" display="12. Ishiura et al [2019]." xr:uid="{10642715-694E-9242-89DD-AD05B26A4BBC}"/>
-    <hyperlink ref="A100" r:id="rId42" display="13. Kume et al [2023]." xr:uid="{43CC1B32-D551-CE4D-91EF-EE86AAA6B1AF}"/>
-    <hyperlink ref="A106" r:id="rId43" display="16. Blauw et al [2012]." xr:uid="{22DFFD24-F2E5-A344-A7A4-84B2B23EB56C}"/>
-    <hyperlink ref="A110" r:id="rId44" display="17. Reported as a GGC repeat [Sone et al 2019, Tian et al 2019] and as a CGG repeat [Ishiura et al 2019]." xr:uid="{5FCC204A-E485-7C4A-841F-6D5BB24C0C8B}"/>
-    <hyperlink ref="A114" r:id="rId45" display="19. PLIN4 minisatellite contains tandem copies of 99-mer or base pair repeat unit that encode 33 aminoacids each [Ruggieri et al 2020]." xr:uid="{6E7F3DD4-C0CB-CA4C-8289-6967159C197E}"/>
-    <hyperlink ref="A118" r:id="rId46" display="21. Yeetong et al [2024]." xr:uid="{10CDE929-E84B-ED40-A875-28BF8F1108E8}"/>
-    <hyperlink ref="A120" r:id="rId47" display="22. ACAGG repeat expansion (~1000 repeats) reported in three families [Scriba et al 2020, Tsuchiya et al 2020] (AAAGG)10-25 (AAGGG)exp(AAAGG)4-6 repeat expansion (990-1940 repeats) reported in 13 affected individuals [Beecroft et al 2020]." xr:uid="{0066A5CB-6046-0B48-974B-E2AC7654B808}"/>
-    <hyperlink ref="A122" r:id="rId48" display="23. Shibata et al [2016]." xr:uid="{CAEDDFEF-020D-D84A-8A09-2EFAEC78DB7E}"/>
-    <hyperlink ref="A124" r:id="rId49" display="24. Takagi et al [2014]." xr:uid="{F83D90E6-199B-C547-BBEE-3EDBF4CEC5C8}"/>
-    <hyperlink ref="A126" r:id="rId50" display="25. This hexanucleotide repeat (AGAGGG)n occurs within the TAF1 SINE-VNTR-Alu or SVA retrotransposon insertion that cause X-linked dystonia-parkinsonism and has the following structure: 5′-SINE-VNTR-Alu(AGAGGG)2AGGG(AGAGGG)n [Laß et al 2024]." xr:uid="{3699BBD1-20CB-3D40-89E1-7855309E0E2E}"/>
-    <hyperlink ref="A128" r:id="rId51" display="26. Penetrance is &lt;100%; reduced penetrance has been reported in individuals with &gt;80 CTG repeats [Wieben et al 2014]." xr:uid="{DE81C4F0-F7C6-374A-93BA-FBAAA2F1A705}"/>
-    <hyperlink ref="A130" r:id="rId52" display="27. Tan et al [2023]." xr:uid="{ECDD807C-BA45-1741-962B-35E6CC50FB6A}"/>
-    <hyperlink ref="A132" r:id="rId53" display="28. Wallenius et al [2024]." xr:uid="{BD556459-0EBA-2541-9067-B99E1C19D85D}"/>
-    <hyperlink ref="A134" r:id="rId54" display="29. Metsu et al [2014]." xr:uid="{B2865B07-5F92-7541-90A0-DF1557446C4A}"/>
-    <hyperlink ref="A108" r:id="rId55" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{FFFA5243-1EE7-F14B-978E-6FEFA616DFBE}"/>
+    <hyperlink ref="A63" r:id="rId26" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{61F5811C-05A2-454E-B166-55404D068068}"/>
+    <hyperlink ref="A65" r:id="rId27" display="* Some expanded alleles may be hypermethylated [Cortese et al 2023]." xr:uid="{52DE4118-41EB-2C49-9544-2511EB8D8A7F}"/>
+    <hyperlink ref="A67" r:id="rId28" display="$ Altered gene expression via hypermethylation is mediated by full-penetrance expansions in the following loci: AFF2 [Metsu et al 2014], AFF3 [Jadhav et al 2023], C9orf72 [Gijselinck et al 2016], DIP2B [Winnepenninckx et al 2007], DMPK [Steinbach et al 19" xr:uid="{1E240323-418F-7A4A-931E-954EB4B35D0A}"/>
+    <hyperlink ref="A69" r:id="rId29" display="^ With the exception of one 81-year old individual with 51 CAG repeats who was asymptomatic [Hattori et al 1999]." xr:uid="{D626FAD2-5CCF-F94E-B610-6E795F918A18}"/>
+    <hyperlink ref="A71" r:id="rId30" display="aa = amino acid; AD = autosomal dominant; ALS = amyotrophic lateral sclerosis; AR = autosomal recessive; ORF = open reading frame; MOI = mode of inheritance; UTR = untranslated region; XL = X-linked; Y = yes; N = no; i = interrupted by CAT repeat motifs; " xr:uid="{533221E0-C8F0-E142-A3F0-E78386A9797F}"/>
+    <hyperlink ref="A73" r:id="rId31" display="1. Proportion of pathogenic variants in this gene that are caused by a nucleotide repeat expansion or contraction." xr:uid="{D1FDB48F-5696-4D4F-AF6E-86A1EF929DD8}"/>
+    <hyperlink ref="A77" r:id="rId32" display="3. Includes data derived from the subscription-based professional view of Human Gene Mutation Database [Stenson et al 2020]." xr:uid="{6CC8149E-0BE1-8F44-9053-3B716E8960EB}"/>
+    <hyperlink ref="A79" r:id="rId33" display="4. Cortese et al [2023]." xr:uid="{A991AACB-2397-AE4D-9307-F597DB0CC006}"/>
+    <hyperlink ref="A81" r:id="rId34" display="5. Jadhav et al [2023]." xr:uid="{505DE172-500D-7D43-8D0C-879367D917B3}"/>
+    <hyperlink ref="A83" r:id="rId35" display="6. Tazelaar et al [2020]." xr:uid="{997A546F-626A-BB4F-BB7F-C06751DA6A7C}"/>
+    <hyperlink ref="A85" r:id="rId36" display="7. Penetrance is &lt;100%. Increased penetrance is reported for alleles of 54-250 CTA/CTG repeats. However, reduced penetrance has been reported at all allele sizes [Ranum et al 1999]." xr:uid="{F7534FF3-6556-744D-85D7-8496BA795FE2}"/>
+    <hyperlink ref="A87" r:id="rId37" display="8. Délot et al [1999]." xr:uid="{0D26912C-FE46-FE48-94D0-D235D952B9C1}"/>
+    <hyperlink ref="A89" r:id="rId38" display="9. FSHD results from contraction of the D4Z4 repeat array, which contains tandemly organized copies of 3.3-kilobase long tandem repeat units, on the permissive chromosome 4 haplotype with polyadenylation signal [Lemmers et al 2010]." xr:uid="{005F6AEA-42C2-F844-8C56-05213A59C0EF}"/>
+    <hyperlink ref="A92" r:id="rId39" display="• Normal repeat: CACA-20-nt(2-9)CA-18-nt(1)CACA-20-nt(1)CA-18-nt(1) – note, a normal allele has 5-12 total repeats." xr:uid="{920AD762-EC3C-2E41-A8C7-07583799E388}"/>
+    <hyperlink ref="A94" r:id="rId40" display="For the complete repeat sequence, see Favaro et al [2014]." xr:uid="{4C4568A7-609E-424D-91BB-3856EAFC3979}"/>
+    <hyperlink ref="A96" r:id="rId41" display="12. Ishiura et al [2019]." xr:uid="{10642715-694E-9242-89DD-AD05B26A4BBC}"/>
+    <hyperlink ref="A98" r:id="rId42" display="13. Kume et al [2023]." xr:uid="{43CC1B32-D551-CE4D-91EF-EE86AAA6B1AF}"/>
+    <hyperlink ref="A104" r:id="rId43" display="16. Blauw et al [2012]." xr:uid="{22DFFD24-F2E5-A344-A7A4-84B2B23EB56C}"/>
+    <hyperlink ref="A108" r:id="rId44" display="17. Reported as a GGC repeat [Sone et al 2019, Tian et al 2019] and as a CGG repeat [Ishiura et al 2019]." xr:uid="{5FCC204A-E485-7C4A-841F-6D5BB24C0C8B}"/>
+    <hyperlink ref="A112" r:id="rId45" display="19. PLIN4 minisatellite contains tandem copies of 99-mer or base pair repeat unit that encode 33 aminoacids each [Ruggieri et al 2020]." xr:uid="{6E7F3DD4-C0CB-CA4C-8289-6967159C197E}"/>
+    <hyperlink ref="A116" r:id="rId46" display="21. Yeetong et al [2024]." xr:uid="{10CDE929-E84B-ED40-A875-28BF8F1108E8}"/>
+    <hyperlink ref="A118" r:id="rId47" display="22. ACAGG repeat expansion (~1000 repeats) reported in three families [Scriba et al 2020, Tsuchiya et al 2020] (AAAGG)10-25 (AAGGG)exp(AAAGG)4-6 repeat expansion (990-1940 repeats) reported in 13 affected individuals [Beecroft et al 2020]." xr:uid="{0066A5CB-6046-0B48-974B-E2AC7654B808}"/>
+    <hyperlink ref="A120" r:id="rId48" display="23. Shibata et al [2016]." xr:uid="{CAEDDFEF-020D-D84A-8A09-2EFAEC78DB7E}"/>
+    <hyperlink ref="A122" r:id="rId49" display="24. Takagi et al [2014]." xr:uid="{F83D90E6-199B-C547-BBEE-3EDBF4CEC5C8}"/>
+    <hyperlink ref="A124" r:id="rId50" display="25. This hexanucleotide repeat (AGAGGG)n occurs within the TAF1 SINE-VNTR-Alu or SVA retrotransposon insertion that cause X-linked dystonia-parkinsonism and has the following structure: 5′-SINE-VNTR-Alu(AGAGGG)2AGGG(AGAGGG)n [Laß et al 2024]." xr:uid="{3699BBD1-20CB-3D40-89E1-7855309E0E2E}"/>
+    <hyperlink ref="A126" r:id="rId51" display="26. Penetrance is &lt;100%; reduced penetrance has been reported in individuals with &gt;80 CTG repeats [Wieben et al 2014]." xr:uid="{DE81C4F0-F7C6-374A-93BA-FBAAA2F1A705}"/>
+    <hyperlink ref="A128" r:id="rId52" display="27. Tan et al [2023]." xr:uid="{ECDD807C-BA45-1741-962B-35E6CC50FB6A}"/>
+    <hyperlink ref="A130" r:id="rId53" display="28. Wallenius et al [2024]." xr:uid="{BD556459-0EBA-2541-9067-B99E1C19D85D}"/>
+    <hyperlink ref="A132" r:id="rId54" display="29. Metsu et al [2014]." xr:uid="{B2865B07-5F92-7541-90A0-DF1557446C4A}"/>
+    <hyperlink ref="A106" r:id="rId55" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{FFFA5243-1EE7-F14B-978E-6FEFA616DFBE}"/>
     <hyperlink ref="B3" r:id="rId56" display="Fragile X syndrome, FRAXE type (OMIM 309548)" xr:uid="{8B8310D9-4D1C-5744-97B4-EDB276EB15A5}"/>
     <hyperlink ref="B5" r:id="rId57" xr:uid="{1EB0DA90-96AB-F54B-B12A-0E43C7891172}"/>
     <hyperlink ref="B6" r:id="rId58" display="Early-infantile epileptic encephalopathy (OMIM 308350);_x000a_ _x000a_Partington syndrome (OMIM 309510)" xr:uid="{2C2DF378-71BD-1C4C-93F8-819BFB65BAFF}"/>
@@ -8989,89 +8880,86 @@
     <hyperlink ref="B15" r:id="rId66" xr:uid="{1D9D2EA9-E3C4-0143-998F-1D32D80126F0}"/>
     <hyperlink ref="B16" r:id="rId67" xr:uid="{E106990A-B2E2-6B43-AD17-943214871AD3}"/>
     <hyperlink ref="B17" r:id="rId68" xr:uid="{814C64A6-2D4D-2B41-812E-5027AAC9F17A}"/>
-    <hyperlink ref="B19" r:id="rId69" xr:uid="{047ECEF7-8B6D-5F4E-B914-8CD5BCC2C492}"/>
-    <hyperlink ref="B20" r:id="rId70" xr:uid="{2622B7CA-C5B2-4743-BADE-1ABB1EA716CF}"/>
-    <hyperlink ref="B21" r:id="rId71" display="Intellectual developmental disorder, FRA12A type (OMIM 136630)" xr:uid="{1D8A0B55-21DD-D242-BABB-CBD3E62A5E11}"/>
-    <hyperlink ref="B22" r:id="rId72" xr:uid="{17FEAB0E-852E-BF4D-AC6C-60763E62B431}"/>
-    <hyperlink ref="B23" r:id="rId73" xr:uid="{4079C6AF-7CF2-354B-8179-BF73B288111E}"/>
-    <hyperlink ref="B24" r:id="rId74" xr:uid="{1055A0D6-F268-C143-8574-2CDF0437E301}"/>
-    <hyperlink ref="B25" r:id="rId75" xr:uid="{872270E6-EFBA-EE48-9FE2-1E8389B6BA52}"/>
-    <hyperlink ref="B26" r:id="rId76" xr:uid="{6066D098-6EDA-FF42-9A16-E8269DC483A9}"/>
-    <hyperlink ref="B27" r:id="rId77" display="Oculopharyngodistal myopathy 2 (OMIM 618940)" xr:uid="{45AAD88F-E5F1-214C-A32F-EEF789B26134}"/>
-    <hyperlink ref="B28" r:id="rId78" display="Glutaminase deficiency with impaired intellectual development and progressive ataxia (OMIM 618412)" xr:uid="{2AC83480-4ECA-7C45-A79B-825AFE061531}"/>
-    <hyperlink ref="B29" r:id="rId79" display="Syndactyly type V (OMIM 186300)" xr:uid="{7E18A9CA-7E94-2F47-89C9-07AD51A6BD55}"/>
-    <hyperlink ref="B30" r:id="rId80" xr:uid="{98B5E6CD-0727-BB4D-AD6C-F3173520F919}"/>
-    <hyperlink ref="B31" r:id="rId81" xr:uid="{899ED2AC-5634-3D4E-8553-9B9EC42A63BB}"/>
-    <hyperlink ref="B32" r:id="rId82" display="Oculopharyngodistal myopathy (OMIM 164310) 12_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 13" xr:uid="{AD6C1B4F-5F17-8143-8567-BF8F07EC25A8}"/>
-    <hyperlink ref="B33" r:id="rId83" display="Familial adult myoclonic epilepsy 3 (OMIM 613608)" xr:uid="{A8A439CF-87B3-0F43-9628-DFE5174A5BD6}"/>
-    <hyperlink ref="B34" r:id="rId84" location=":~:text=Diagnosis-,Autosomal%20dominant%20tubulointerstitial%20kidney%20disease%20%E2%80%93%20MUC1%20(ADTKD%2DMUC1),sole%20manifestation%20of%20this%20disorder." xr:uid="{68415C96-F08C-6F42-8B30-BE2768F77918}"/>
-    <hyperlink ref="B36" r:id="rId85" display="Spinocerebellar ataxia type 36 (OMIM 614153)" xr:uid="{2E2F9533-D665-264C-B933-1E9D8C8452DC}"/>
-    <hyperlink ref="B37" r:id="rId86" display="Neuronal intranuclear inclusion disease (OMIM 603472)" xr:uid="{277B307A-B5EB-9F4A-A5D5-4D93569DF55A}"/>
-    <hyperlink ref="B38" r:id="rId87" display="Oculopharyngeal myopathy with leukoencephalopathy 1 (OMIM 618637)" xr:uid="{9DACA990-B699-1D4E-93B7-A2B465035ADE}"/>
-    <hyperlink ref="B39" r:id="rId88" xr:uid="{D6C0C8B8-0D9B-514E-9FE8-18C4EF300D4B}"/>
-    <hyperlink ref="B40" r:id="rId89" xr:uid="{8D3E37AB-D831-5943-90A8-C32D81D2633D}"/>
-    <hyperlink ref="B41" r:id="rId90" display="Myopathy with rimmed ubiquitin-positive autophagic vacuolation (OMIM 601846)" xr:uid="{0C654B2B-9BD4-174B-A916-F68602DD54E5}"/>
-    <hyperlink ref="B42" r:id="rId91" display="Spinocerebellar ataxia type 12 (OMIM 604326)" xr:uid="{F0DC8DAF-E5C2-8944-AABA-D196B1086FB2}"/>
-    <hyperlink ref="B43" r:id="rId92" display="Hereditary sensory and autonomic neuropathy type VIII (OMIM 616488)" xr:uid="{83420E8C-88B6-174E-9E14-24845330DF6A}"/>
-    <hyperlink ref="B44" r:id="rId93" xr:uid="{D0D3DAF2-0A4F-9E43-97BB-72BFAEDE87A9}"/>
-    <hyperlink ref="B45" r:id="rId94" display="Familial adult myoclonic epilepsy type 7 (OMIM 618075)" xr:uid="{8161BE93-EF33-DD4A-8D75-5C1691926CAC}"/>
-    <hyperlink ref="B46" r:id="rId95" xr:uid="{B60B7A82-A20F-E944-9D9A-BFE4B2106BD1}"/>
-    <hyperlink ref="B47" r:id="rId96" display="Oculopharyngodistal myopathy 4 (OMIM 619790)" xr:uid="{E94B5A97-37C0-0C4C-8FDB-DB0B8397290F}"/>
-    <hyperlink ref="B48" r:id="rId97" xr:uid="{C1E019DD-3CCC-1341-95F5-CA22BC0B0A67}"/>
-    <hyperlink ref="B49" r:id="rId98" display="Familial adult myoclonic epilepsy type 1 (OMIM 601068)" xr:uid="{EFEBA867-1C20-7445-B287-986911558536}"/>
-    <hyperlink ref="B50" r:id="rId99" display="Familial adult myoclonic epilepsy 2 (OMIM 607876)" xr:uid="{0C06DEE5-26E1-5547-8C12-A9E33566ED2D}"/>
-    <hyperlink ref="B51" r:id="rId100" xr:uid="{58715D43-7D0D-FD4F-A398-2DEC877A5487}"/>
-    <hyperlink ref="B52" r:id="rId101" xr:uid="{35D85029-C2D3-0E4F-8CCD-BD55A5015BE5}"/>
-    <hyperlink ref="B53" r:id="rId102" display="Tetralogy of Fallot (OMIM 602054)" xr:uid="{8B263B4A-8B87-374D-A1B2-7EF63975AA56}"/>
-    <hyperlink ref="B54" r:id="rId103" display="Fuchs endothelial corneal dystrophy 3 (OMIM 613267)" xr:uid="{C3774581-EF48-B545-BFA4-88A542272808}"/>
-    <hyperlink ref="B56" r:id="rId104" display="Familial adult myoclonic epilepsy type 6 (OMIM 618074)" xr:uid="{7BC4344C-2894-E34F-91FE-20B0262FD85F}"/>
-    <hyperlink ref="B57" r:id="rId105" display="Hereditary motor neuropathy (OMIM 619216)" xr:uid="{28E5C243-E17A-2943-BB16-85E0D1CBD49E}"/>
-    <hyperlink ref="B58" r:id="rId106" display="Baratela-Scott syndrome (Desbuquois dysplasia type 2; OMIM 615777)" xr:uid="{1D93272C-EC5D-D047-94DF-0945494FAA69}"/>
-    <hyperlink ref="B59" r:id="rId107" display="Familial adult myoclonic epilepsy 4 (OMIM 615127)" xr:uid="{3CE722FF-9CF4-1643-8658-41B30B1FCAB3}"/>
-    <hyperlink ref="B60" r:id="rId108" display="Spinocerebellar ataxia type 4 (OMIM 600223) 28" xr:uid="{2B068658-1F79-664F-80FC-E6F33210DF75}"/>
-    <hyperlink ref="B61" r:id="rId109" display="Holoprosencephaly type 5 (See Holoprosencephaly Overview.)" xr:uid="{9F35F041-5A06-444A-AC8B-0E931F125B4B}"/>
-    <hyperlink ref="B62" r:id="rId110" display="VACTERL (OMIM 300265)" xr:uid="{06B1D189-5DC3-9643-A4BC-7C81249EF233}"/>
-    <hyperlink ref="B108" r:id="rId111" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{797CE343-607B-034F-B114-8FDB369313A0}"/>
-    <hyperlink ref="B65" r:id="rId112" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{F04EF482-AF91-134A-BB2E-B6DC835A4371}"/>
-    <hyperlink ref="C108" r:id="rId113" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5519976E-ED34-9242-981F-9C56B064C4F5}"/>
-    <hyperlink ref="C65" r:id="rId114" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{2FB51E9B-58A1-A04B-AE31-C666D4A6F7CA}"/>
-    <hyperlink ref="B12" r:id="rId115" xr:uid="{593B8546-93D9-2F43-B840-D1B84572E918}"/>
-    <hyperlink ref="B18" r:id="rId116" xr:uid="{319B36A4-8767-C245-867B-602DE4318F59}"/>
-    <hyperlink ref="D4" r:id="rId117" xr:uid="{2F75FB8A-5387-F14D-8E3E-1FEEC048E809}"/>
-    <hyperlink ref="D9" r:id="rId118" location=":~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" display="https://www.ncbi.nlm.nih.gov/books/NBK1275/#:~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" xr:uid="{62ED637E-7B94-A346-B7DD-44EE12A184BA}"/>
-    <hyperlink ref="D12" r:id="rId119" location=":~:text=al%202000%5D.-,Prevalence,-There%20are%20no" xr:uid="{E4DE2169-6C0B-7F43-BBA6-05AB11FC8D6C}"/>
-    <hyperlink ref="D15" r:id="rId120" location=":~:text=It%20is%20important%20to%20note%20that%20the%20frequency%20of%20C9orf72%20G4C2%20repeat%20expansions%20greatly%20depends%20on%20ethnicity%20and%20geographic%20region." xr:uid="{91F886B3-0381-E94A-8A4D-0799340BBE72}"/>
-    <hyperlink ref="D14" r:id="rId121" xr:uid="{97CEF37B-B808-1D4E-92EB-4EB7B13D757F}"/>
-    <hyperlink ref="D19" r:id="rId122" location=":~:text=scapulo%2Dperoneal%20syndromes.%22-,Prevalence,-The%20estimated%20prevalence" xr:uid="{D2A8926F-C6E2-0C44-8FB1-A442C26F41CD}"/>
-    <hyperlink ref="D28" r:id="rId123" location=":~:text=neurogenesis%20and%20neurotransmission.-,CASE%20REPORT,-Three%20unrelated%20patients" xr:uid="{A568CBD4-9487-4A4D-87CE-33A8A30188E1}"/>
-    <hyperlink ref="D30" r:id="rId124" location=":~:text=have%20manifest%20HD.-,Prevalence,-HD%20prevalence%20varies" xr:uid="{16597CE0-385D-8248-96D7-F8B5BE20DA59}"/>
-    <hyperlink ref="D34" r:id="rId125" xr:uid="{88351F2D-A5B7-DD46-BC2D-9F2BF4E50F84}"/>
-    <hyperlink ref="D41" r:id="rId126" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{9FF4F605-A19B-0943-B2BD-744652E58D32}"/>
-    <hyperlink ref="D61" r:id="rId127" xr:uid="{B23A76A7-C6B4-4743-A2A1-01FFF98B3476}"/>
-    <hyperlink ref="D60" r:id="rId128" xr:uid="{AE1CFF56-233A-A841-A735-69CD0A6BFEE4}"/>
-    <hyperlink ref="D59" r:id="rId129" xr:uid="{3F33ED6D-B7EA-DB4A-AE73-59FA51F42900}"/>
-    <hyperlink ref="D57" r:id="rId130" xr:uid="{5063255B-AC26-684F-999F-B9277DEFCD7F}"/>
-    <hyperlink ref="D56" r:id="rId131" xr:uid="{E3E3DD13-BC55-CF4C-9774-AFAD2855115C}"/>
-    <hyperlink ref="D55" r:id="rId132" location=":~:text=We%20performed%20long%2Dread%20whole%2Dgenome%20sequencing%20combined%20with%20linkage%20analysis%20in%20a%20five%2Dgeneration%20Chinese%20family" xr:uid="{6F842D6E-F51B-7249-8EA7-932D59381BBE}"/>
-    <hyperlink ref="D53" r:id="rId133" location=":~:text=In%20a%20Turkish%20patient" xr:uid="{D0E1FF9E-D39B-2E40-A1E3-59E6DBDC6057}"/>
-    <hyperlink ref="D52" r:id="rId134" location=":~:text=size%20of%20expansion.-,Prevalence,-Fewer%20than%20100" xr:uid="{E01EDF46-401F-6E40-BFB5-C4669B484895}"/>
-    <hyperlink ref="D51" r:id="rId135" location=":~:text=persons%20with%20XDP.-,Prevalence,-The%20first%20epidemiologic" xr:uid="{2C7F15F2-3A56-2045-AE2A-CDE25E378192}"/>
-    <hyperlink ref="D48" r:id="rId136" location=":~:text=in%20bone%20maintenance.-,Prevalence,-Stevenson%20et%20al" xr:uid="{A4DF3BAD-41C1-3848-BCC4-2E37EFB3CAEB}"/>
-    <hyperlink ref="D44" r:id="rId137" xr:uid="{D3DF56EB-CFDF-0149-AC67-6296E0604369}"/>
-    <hyperlink ref="D43" r:id="rId138" xr:uid="{BB6C716A-4A5C-E649-8D2B-94DD60A55728}"/>
-    <hyperlink ref="D42" r:id="rId139" xr:uid="{344E7A32-E29A-A244-96AF-A5523E2251E2}"/>
-    <hyperlink ref="D46" r:id="rId140" location=":~:text=have%20been%20identified.-,Prevalence,-The%20heterozygote%20carrier" xr:uid="{388F55FE-2ECE-E74D-8E97-DAD40FA62A12}"/>
-    <hyperlink ref="D47" r:id="rId141" xr:uid="{F0B9DD25-45AA-F04C-AA50-A4C6435A5668}"/>
-    <hyperlink ref="D50" r:id="rId142" location=":~:text=chr29.-,Table%201.,-Clinical%20summaries%20of" xr:uid="{D5584F66-E847-CF4B-9E7E-805326ACAED7}"/>
-    <hyperlink ref="D54" r:id="rId143" location=":~:text=and%20global%20populations.-,Results,-The%20carrier%20rates" xr:uid="{11BE8414-289F-1842-B272-D278AB59881F}"/>
-    <hyperlink ref="D58" r:id="rId144" xr:uid="{83600682-24F9-1C40-BDDF-1D74C5E16E1D}"/>
-    <hyperlink ref="D62" r:id="rId145" xr:uid="{3CF5D75F-E255-1745-BC88-1E6DBF01C580}"/>
-    <hyperlink ref="D25" r:id="rId146" xr:uid="{42506FAB-00AD-4446-970F-B5AD201D695C}"/>
-    <hyperlink ref="E109" r:id="rId147" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5708B881-6B56-704C-88BD-EE98D6187B90}"/>
-    <hyperlink ref="D2" r:id="rId148" location=":~:text=underlying%20muscle%20degeneration.-,Results,-We%20report%2035" xr:uid="{8372C5E4-6CB5-B644-BA6D-8742C98A64F7}"/>
+    <hyperlink ref="B19" r:id="rId69" xr:uid="{2622B7CA-C5B2-4743-BADE-1ABB1EA716CF}"/>
+    <hyperlink ref="B20" r:id="rId70" xr:uid="{17FEAB0E-852E-BF4D-AC6C-60763E62B431}"/>
+    <hyperlink ref="B21" r:id="rId71" display="Pierre Robin sequence with cleft mandible and limb anomalies (OMIM 268305)" xr:uid="{4079C6AF-7CF2-354B-8179-BF73B288111E}"/>
+    <hyperlink ref="B22" r:id="rId72" xr:uid="{1055A0D6-F268-C143-8574-2CDF0437E301}"/>
+    <hyperlink ref="B23" r:id="rId73" xr:uid="{872270E6-EFBA-EE48-9FE2-1E8389B6BA52}"/>
+    <hyperlink ref="B24" r:id="rId74" xr:uid="{6066D098-6EDA-FF42-9A16-E8269DC483A9}"/>
+    <hyperlink ref="B25" r:id="rId75" display="Oculopharyngodistal myopathy 2 (OMIM 618940)" xr:uid="{45AAD88F-E5F1-214C-A32F-EEF789B26134}"/>
+    <hyperlink ref="B26" r:id="rId76" display="Glutaminase deficiency with impaired intellectual development and progressive ataxia (OMIM 618412)" xr:uid="{2AC83480-4ECA-7C45-A79B-825AFE061531}"/>
+    <hyperlink ref="B27" r:id="rId77" display="Syndactyly type V (OMIM 186300)" xr:uid="{7E18A9CA-7E94-2F47-89C9-07AD51A6BD55}"/>
+    <hyperlink ref="B28" r:id="rId78" xr:uid="{98B5E6CD-0727-BB4D-AD6C-F3173520F919}"/>
+    <hyperlink ref="B29" r:id="rId79" xr:uid="{899ED2AC-5634-3D4E-8553-9B9EC42A63BB}"/>
+    <hyperlink ref="B30" r:id="rId80" display="Oculopharyngodistal myopathy (OMIM 164310) 12_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 13" xr:uid="{AD6C1B4F-5F17-8143-8567-BF8F07EC25A8}"/>
+    <hyperlink ref="B31" r:id="rId81" display="Familial adult myoclonic epilepsy 3 (OMIM 613608)" xr:uid="{A8A439CF-87B3-0F43-9628-DFE5174A5BD6}"/>
+    <hyperlink ref="B32" r:id="rId82" location=":~:text=Diagnosis-,Autosomal%20dominant%20tubulointerstitial%20kidney%20disease%20%E2%80%93%20MUC1%20(ADTKD%2DMUC1),sole%20manifestation%20of%20this%20disorder." xr:uid="{68415C96-F08C-6F42-8B30-BE2768F77918}"/>
+    <hyperlink ref="B34" r:id="rId83" display="Spinocerebellar ataxia type 36 (OMIM 614153)" xr:uid="{2E2F9533-D665-264C-B933-1E9D8C8452DC}"/>
+    <hyperlink ref="B35" r:id="rId84" display="Neuronal intranuclear inclusion disease (OMIM 603472)" xr:uid="{277B307A-B5EB-9F4A-A5D5-4D93569DF55A}"/>
+    <hyperlink ref="B36" r:id="rId85" display="Oculopharyngeal myopathy with leukoencephalopathy 1 (OMIM 618637)" xr:uid="{9DACA990-B699-1D4E-93B7-A2B465035ADE}"/>
+    <hyperlink ref="B37" r:id="rId86" xr:uid="{D6C0C8B8-0D9B-514E-9FE8-18C4EF300D4B}"/>
+    <hyperlink ref="B38" r:id="rId87" xr:uid="{8D3E37AB-D831-5943-90A8-C32D81D2633D}"/>
+    <hyperlink ref="B39" r:id="rId88" display="Myopathy with rimmed ubiquitin-positive autophagic vacuolation (OMIM 601846)" xr:uid="{0C654B2B-9BD4-174B-A916-F68602DD54E5}"/>
+    <hyperlink ref="B40" r:id="rId89" display="Spinocerebellar ataxia type 12 (OMIM 604326)" xr:uid="{F0DC8DAF-E5C2-8944-AABA-D196B1086FB2}"/>
+    <hyperlink ref="B41" r:id="rId90" display="Hereditary sensory and autonomic neuropathy type VIII (OMIM 616488)" xr:uid="{83420E8C-88B6-174E-9E14-24845330DF6A}"/>
+    <hyperlink ref="B42" r:id="rId91" xr:uid="{D0D3DAF2-0A4F-9E43-97BB-72BFAEDE87A9}"/>
+    <hyperlink ref="B43" r:id="rId92" display="Familial adult myoclonic epilepsy type 7 (OMIM 618075)" xr:uid="{8161BE93-EF33-DD4A-8D75-5C1691926CAC}"/>
+    <hyperlink ref="B44" r:id="rId93" xr:uid="{B60B7A82-A20F-E944-9D9A-BFE4B2106BD1}"/>
+    <hyperlink ref="B45" r:id="rId94" display="Oculopharyngodistal myopathy 4 (OMIM 619790)" xr:uid="{E94B5A97-37C0-0C4C-8FDB-DB0B8397290F}"/>
+    <hyperlink ref="B46" r:id="rId95" xr:uid="{C1E019DD-3CCC-1341-95F5-CA22BC0B0A67}"/>
+    <hyperlink ref="B47" r:id="rId96" display="Familial adult myoclonic epilepsy type 1 (OMIM 601068)" xr:uid="{EFEBA867-1C20-7445-B287-986911558536}"/>
+    <hyperlink ref="B48" r:id="rId97" display="Familial adult myoclonic epilepsy 2 (OMIM 607876)" xr:uid="{0C06DEE5-26E1-5547-8C12-A9E33566ED2D}"/>
+    <hyperlink ref="B49" r:id="rId98" xr:uid="{58715D43-7D0D-FD4F-A398-2DEC877A5487}"/>
+    <hyperlink ref="B50" r:id="rId99" xr:uid="{35D85029-C2D3-0E4F-8CCD-BD55A5015BE5}"/>
+    <hyperlink ref="B51" r:id="rId100" display="Tetralogy of Fallot (OMIM 602054)" xr:uid="{8B263B4A-8B87-374D-A1B2-7EF63975AA56}"/>
+    <hyperlink ref="B52" r:id="rId101" display="Fuchs endothelial corneal dystrophy 3 (OMIM 613267)" xr:uid="{C3774581-EF48-B545-BFA4-88A542272808}"/>
+    <hyperlink ref="B54" r:id="rId102" display="Familial adult myoclonic epilepsy type 6 (OMIM 618074)" xr:uid="{7BC4344C-2894-E34F-91FE-20B0262FD85F}"/>
+    <hyperlink ref="B55" r:id="rId103" display="Hereditary motor neuropathy (OMIM 619216)" xr:uid="{28E5C243-E17A-2943-BB16-85E0D1CBD49E}"/>
+    <hyperlink ref="B56" r:id="rId104" display="Baratela-Scott syndrome (Desbuquois dysplasia type 2; OMIM 615777)" xr:uid="{1D93272C-EC5D-D047-94DF-0945494FAA69}"/>
+    <hyperlink ref="B57" r:id="rId105" display="Familial adult myoclonic epilepsy 4 (OMIM 615127)" xr:uid="{3CE722FF-9CF4-1643-8658-41B30B1FCAB3}"/>
+    <hyperlink ref="B58" r:id="rId106" display="Spinocerebellar ataxia type 4 (OMIM 600223) 28" xr:uid="{2B068658-1F79-664F-80FC-E6F33210DF75}"/>
+    <hyperlink ref="B59" r:id="rId107" display="Holoprosencephaly type 5 (See Holoprosencephaly Overview.)" xr:uid="{9F35F041-5A06-444A-AC8B-0E931F125B4B}"/>
+    <hyperlink ref="B60" r:id="rId108" display="VACTERL (OMIM 300265)" xr:uid="{06B1D189-5DC3-9643-A4BC-7C81249EF233}"/>
+    <hyperlink ref="B106" r:id="rId109" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{797CE343-607B-034F-B114-8FDB369313A0}"/>
+    <hyperlink ref="B63" r:id="rId110" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{F04EF482-AF91-134A-BB2E-B6DC835A4371}"/>
+    <hyperlink ref="C106" r:id="rId111" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5519976E-ED34-9242-981F-9C56B064C4F5}"/>
+    <hyperlink ref="C63" r:id="rId112" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{2FB51E9B-58A1-A04B-AE31-C666D4A6F7CA}"/>
+    <hyperlink ref="B12" r:id="rId113" xr:uid="{593B8546-93D9-2F43-B840-D1B84572E918}"/>
+    <hyperlink ref="B18" r:id="rId114" xr:uid="{319B36A4-8767-C245-867B-602DE4318F59}"/>
+    <hyperlink ref="D4" r:id="rId115" xr:uid="{2F75FB8A-5387-F14D-8E3E-1FEEC048E809}"/>
+    <hyperlink ref="D9" r:id="rId116" location=":~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" display="https://www.ncbi.nlm.nih.gov/books/NBK1275/#:~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" xr:uid="{62ED637E-7B94-A346-B7DD-44EE12A184BA}"/>
+    <hyperlink ref="D12" r:id="rId117" location=":~:text=al%202000%5D.-,Prevalence,-There%20are%20no" xr:uid="{E4DE2169-6C0B-7F43-BBA6-05AB11FC8D6C}"/>
+    <hyperlink ref="D15" r:id="rId118" location=":~:text=It%20is%20important%20to%20note%20that%20the%20frequency%20of%20C9orf72%20G4C2%20repeat%20expansions%20greatly%20depends%20on%20ethnicity%20and%20geographic%20region." xr:uid="{91F886B3-0381-E94A-8A4D-0799340BBE72}"/>
+    <hyperlink ref="D14" r:id="rId119" xr:uid="{97CEF37B-B808-1D4E-92EB-4EB7B13D757F}"/>
+    <hyperlink ref="D26" r:id="rId120" location=":~:text=neurogenesis%20and%20neurotransmission.-,CASE%20REPORT,-Three%20unrelated%20patients" xr:uid="{A568CBD4-9487-4A4D-87CE-33A8A30188E1}"/>
+    <hyperlink ref="D28" r:id="rId121" location=":~:text=have%20manifest%20HD.-,Prevalence,-HD%20prevalence%20varies" xr:uid="{16597CE0-385D-8248-96D7-F8B5BE20DA59}"/>
+    <hyperlink ref="D32" r:id="rId122" xr:uid="{88351F2D-A5B7-DD46-BC2D-9F2BF4E50F84}"/>
+    <hyperlink ref="D39" r:id="rId123" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{9FF4F605-A19B-0943-B2BD-744652E58D32}"/>
+    <hyperlink ref="D59" r:id="rId124" xr:uid="{B23A76A7-C6B4-4743-A2A1-01FFF98B3476}"/>
+    <hyperlink ref="D58" r:id="rId125" xr:uid="{AE1CFF56-233A-A841-A735-69CD0A6BFEE4}"/>
+    <hyperlink ref="D57" r:id="rId126" xr:uid="{3F33ED6D-B7EA-DB4A-AE73-59FA51F42900}"/>
+    <hyperlink ref="D55" r:id="rId127" xr:uid="{5063255B-AC26-684F-999F-B9277DEFCD7F}"/>
+    <hyperlink ref="D54" r:id="rId128" xr:uid="{E3E3DD13-BC55-CF4C-9774-AFAD2855115C}"/>
+    <hyperlink ref="D53" r:id="rId129" location=":~:text=We%20performed%20long%2Dread%20whole%2Dgenome%20sequencing%20combined%20with%20linkage%20analysis%20in%20a%20five%2Dgeneration%20Chinese%20family" xr:uid="{6F842D6E-F51B-7249-8EA7-932D59381BBE}"/>
+    <hyperlink ref="D51" r:id="rId130" location=":~:text=In%20a%20Turkish%20patient" xr:uid="{D0E1FF9E-D39B-2E40-A1E3-59E6DBDC6057}"/>
+    <hyperlink ref="D50" r:id="rId131" location=":~:text=size%20of%20expansion.-,Prevalence,-Fewer%20than%20100" xr:uid="{E01EDF46-401F-6E40-BFB5-C4669B484895}"/>
+    <hyperlink ref="D49" r:id="rId132" location=":~:text=persons%20with%20XDP.-,Prevalence,-The%20first%20epidemiologic" xr:uid="{2C7F15F2-3A56-2045-AE2A-CDE25E378192}"/>
+    <hyperlink ref="D46" r:id="rId133" location=":~:text=in%20bone%20maintenance.-,Prevalence,-Stevenson%20et%20al" xr:uid="{A4DF3BAD-41C1-3848-BCC4-2E37EFB3CAEB}"/>
+    <hyperlink ref="D42" r:id="rId134" xr:uid="{D3DF56EB-CFDF-0149-AC67-6296E0604369}"/>
+    <hyperlink ref="D41" r:id="rId135" xr:uid="{BB6C716A-4A5C-E649-8D2B-94DD60A55728}"/>
+    <hyperlink ref="D40" r:id="rId136" xr:uid="{344E7A32-E29A-A244-96AF-A5523E2251E2}"/>
+    <hyperlink ref="D44" r:id="rId137" location=":~:text=have%20been%20identified.-,Prevalence,-The%20heterozygote%20carrier" xr:uid="{388F55FE-2ECE-E74D-8E97-DAD40FA62A12}"/>
+    <hyperlink ref="D45" r:id="rId138" xr:uid="{F0B9DD25-45AA-F04C-AA50-A4C6435A5668}"/>
+    <hyperlink ref="D48" r:id="rId139" location=":~:text=chr29.-,Table%201.,-Clinical%20summaries%20of" xr:uid="{D5584F66-E847-CF4B-9E7E-805326ACAED7}"/>
+    <hyperlink ref="D52" r:id="rId140" location=":~:text=and%20global%20populations.-,Results,-The%20carrier%20rates" xr:uid="{11BE8414-289F-1842-B272-D278AB59881F}"/>
+    <hyperlink ref="D56" r:id="rId141" xr:uid="{83600682-24F9-1C40-BDDF-1D74C5E16E1D}"/>
+    <hyperlink ref="D60" r:id="rId142" xr:uid="{3CF5D75F-E255-1745-BC88-1E6DBF01C580}"/>
+    <hyperlink ref="D23" r:id="rId143" xr:uid="{42506FAB-00AD-4446-970F-B5AD201D695C}"/>
+    <hyperlink ref="E107" r:id="rId144" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5708B881-6B56-704C-88BD-EE98D6187B90}"/>
+    <hyperlink ref="D2" r:id="rId145" location=":~:text=underlying%20muscle%20degeneration.-,Results,-We%20report%2035" xr:uid="{8372C5E4-6CB5-B644-BA6D-8742C98A64F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <legacyDrawing r:id="rId149"/>
+  <legacyDrawing r:id="rId146"/>
 </worksheet>
 </file>
--- a/repid.xlsx
+++ b/repid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iriscaglayan/Desktop/interactive maps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BBBD92-3A1D-5347-8776-E635D7184050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A0116F-1EB4-084B-9DC9-994FD05AC6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37600" yWindow="2560" windowWidth="30240" windowHeight="17040" xr2:uid="{64FAF4F8-A362-0E4D-8934-8283BE4E4B67}"/>
   </bookViews>
@@ -1071,9 +1071,6 @@
     <t>35-47</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/books/NBK1175/#:~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence, https://pmc.ncbi.nlm.nih.gov/articles/PMC6749803/</t>
-  </si>
-  <si>
     <t>≥500 TGGAA</t>
   </si>
   <si>
@@ -1216,6 +1213,9 @@
   </si>
   <si>
     <t>Pierre Robin sequence with cleft mandible and limb anomalies</t>
+  </si>
+  <si>
+    <t>https://www.ncbi.nlm.nih.gov/books/NBK1175/#:~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence &amp;  https://pmc.ncbi.nlm.nih.gov/articles/PMC6749803/</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D726A56B-E6A4-FC48-82D9-EBC661D15C56}">
   <dimension ref="A1:H977"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1823,7 +1823,7 @@
         <v>65</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>66</v>
@@ -1872,7 +1872,7 @@
         <v>55</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>137</v>
@@ -1881,7 +1881,7 @@
         <v>45473</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>197</v>
@@ -1933,7 +1933,7 @@
         <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>198</v>
@@ -1976,7 +1976,7 @@
         <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>140</v>
@@ -1996,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>42</v>
@@ -2011,10 +2011,10 @@
         <v>41</v>
       </c>
       <c r="G8" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="H8" s="22" t="s">
         <v>298</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.15">
@@ -2022,13 +2022,13 @@
         <v>95</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>138</v>
@@ -2037,7 +2037,7 @@
         <v>166</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H9" s="22" t="s">
         <v>200</v>
@@ -2054,7 +2054,7 @@
         <v>42</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>142</v>
@@ -2080,7 +2080,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>138</v>
@@ -2089,7 +2089,7 @@
         <v>45500</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="22" t="s">
         <v>202</v>
@@ -2132,7 +2132,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>278</v>
+        <v>323</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>144</v>
@@ -2141,7 +2141,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H13" s="22" t="s">
         <v>44</v>
@@ -2170,7 +2170,7 @@
         <v>168</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42" x14ac:dyDescent="0.15">
@@ -2210,7 +2210,7 @@
         <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>147</v>
@@ -2245,7 +2245,7 @@
         <v>170</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H17" s="22" t="s">
         <v>206</v>
@@ -2300,7 +2300,7 @@
         <v>168</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28" x14ac:dyDescent="0.15">
@@ -2323,7 +2323,7 @@
         <v>51</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H20" s="22" t="s">
         <v>52</v>
@@ -2334,7 +2334,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>171</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>47</v>
@@ -2392,7 +2392,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>163</v>
@@ -2401,7 +2401,7 @@
         <v>172</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H23" s="22" t="s">
         <v>197</v>
@@ -2427,7 +2427,7 @@
         <v>173</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H24" s="22" t="s">
         <v>195</v>
@@ -2531,7 +2531,7 @@
         <v>170</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H28" s="22" t="s">
         <v>53</v>
@@ -2612,7 +2612,7 @@
         <v>168</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="28" x14ac:dyDescent="0.15">
@@ -2791,7 +2791,7 @@
         <v>164</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H38" s="22" t="s">
         <v>57</v>
@@ -2860,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>140</v>
@@ -2886,7 +2886,7 @@
         <v>42</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>153</v>
@@ -2906,7 +2906,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>42</v>
@@ -2924,7 +2924,7 @@
         <v>168</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,10 +2947,10 @@
         <v>179</v>
       </c>
       <c r="G44" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -3010,13 +3010,13 @@
         <v>30</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>156</v>
@@ -3028,7 +3028,7 @@
         <v>168</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="42" x14ac:dyDescent="0.2">
@@ -3036,13 +3036,13 @@
         <v>31</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C48" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>148</v>
@@ -3103,7 +3103,7 @@
         <v>181</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H50" s="22" t="s">
         <v>60</v>
@@ -3166,7 +3166,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>42</v>
@@ -3210,7 +3210,7 @@
         <v>168</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -3288,7 +3288,7 @@
         <v>168</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="14" x14ac:dyDescent="0.15">
@@ -3322,7 +3322,7 @@
         <v>107</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>42</v>
@@ -3354,7 +3354,7 @@
         <v>55</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>138</v>
@@ -8814,149 +8814,149 @@
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" location=":~:text=spinal%20muscular%20atrophy.-,Prevalence,-SBMA%20has%20an" xr:uid="{7DF81208-C4CD-634C-8778-4FDEFF64872D}"/>
     <hyperlink ref="D6" r:id="rId2" xr:uid="{DA2AF0EA-1144-404A-9672-04FB15800E76}"/>
-    <hyperlink ref="D8" r:id="rId3" xr:uid="{F2CDD914-E3AF-934A-BDB8-6C912D12A281}"/>
-    <hyperlink ref="D11" r:id="rId4" location=":~:text=ADCA%20type%20II.-,Prevalence,-The%20prevalence%20is" display="https://www.ncbi.nlm.nih.gov/books/NBK1256/#:~:text=ADCA%20type%20II.-,Prevalence,-The%20prevalence%20is" xr:uid="{387BC039-84BB-8F41-9DF7-B8359C7C1B35}"/>
-    <hyperlink ref="D13" r:id="rId5" location=":~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence" display="https://www.ncbi.nlm.nih.gov/books/NBK1175/#:~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence" xr:uid="{D225C22A-94FA-7F46-8890-F5A065009635}"/>
-    <hyperlink ref="D17" r:id="rId6" location=":~:text=variant%20in%20VCP.-,Prevalence,-Prevalence%20appears%20to" xr:uid="{18E56BD3-8D7E-C648-8216-1116C5AFE241}"/>
-    <hyperlink ref="D18" r:id="rId7" location=":~:text=longer%20be%20used.-,Prevalence,-EPM1%20has%20the" xr:uid="{7A01F5B4-F007-954A-9D39-6B00742D8302}"/>
-    <hyperlink ref="D19" r:id="rId8" location=":~:text=the%20transmitting%20parent.-,Prevalence,-To%20date%2C%2066" xr:uid="{FB289A98-CDE9-584E-A386-B336BCEACE4B}"/>
-    <hyperlink ref="D20" r:id="rId9" location=":~:text=al%202015%5D.-,Prevalence,-Estimates%20of%20the" xr:uid="{7CE07B54-1E80-A74F-A605-C42206FAB213}"/>
-    <hyperlink ref="D21" r:id="rId10" xr:uid="{E4499C50-0F4B-7741-82A6-16CDA839D5D0}"/>
-    <hyperlink ref="D16" r:id="rId11" location=":~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" display="https://www.ncbi.nlm.nih.gov/books/NBK1140/#:~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" xr:uid="{51A202AC-CC99-A849-837C-FD9410C84F43}"/>
-    <hyperlink ref="D22" r:id="rId12" location=":~:text=%2Drelated%20ataxia.-,Prevalence,-The%20prevalence%20of" xr:uid="{A4684C2C-1D3C-AA4C-A9D2-C5CD7A93BBAF}"/>
-    <hyperlink ref="D24" r:id="rId13" location=":~:text=only%20one%20generation.-,Prevalence,-The%20prevalence%20of" xr:uid="{71E6A67D-64ED-D942-8965-FB3A4DD59658}"/>
-    <hyperlink ref="D27" r:id="rId14" location=":~:text=involving%20CREBBP.-,Prevalence,-The%20birth%20prevalence" xr:uid="{04AFB5B0-A6FF-CA43-9185-7736B0A19BAC}"/>
-    <hyperlink ref="D29" r:id="rId15" location=":~:text=to%20as%20HD2.-,Prevalence,-Although%20rare%2C%20HDL2" xr:uid="{21F86D3A-5351-7C4D-8051-0FFAD643B3D2}"/>
-    <hyperlink ref="D30" r:id="rId16" xr:uid="{0F5B75AF-5900-E241-A711-9F2B72CC3B0E}"/>
-    <hyperlink ref="D31" r:id="rId17" xr:uid="{272579D8-E456-754C-8B2C-98318A18C0AF}"/>
-    <hyperlink ref="D35" r:id="rId18" xr:uid="{1F724DB7-253F-2D42-9EAE-C91B0558F7A6}"/>
-    <hyperlink ref="D34" r:id="rId19" xr:uid="{97B4DBF4-817E-6B4A-9DE3-E76AA31701A4}"/>
-    <hyperlink ref="D36" r:id="rId20" xr:uid="{F2447E3D-FD10-444A-859D-DB8F1BCC0E14}"/>
-    <hyperlink ref="D37" r:id="rId21" location=":~:text=technical%20considerations).-,Prevalence,-The%20prevalence%20of" xr:uid="{8B46876B-9B39-A044-A5A7-094B9650FC20}"/>
-    <hyperlink ref="D38" r:id="rId22" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{59FB008D-CDE2-274A-BD5D-91B698ACC648}"/>
-    <hyperlink ref="D3" r:id="rId23" display="https://omim.org/entry/309548, " xr:uid="{6CFB2BE3-44BB-2945-AF7D-E4442E292425}"/>
-    <hyperlink ref="D7" r:id="rId24" location=":~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more" display="https://www.ncbi.nlm.nih.gov/books/NBK1491/#:~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more" xr:uid="{E8D4A945-4899-C74F-A5C0-C8E369E2B6D4}"/>
-    <hyperlink ref="D10" r:id="rId25" location=":~:text=same%20gene.-,Prevalence,-No%20accurate%20data" display="https://www.ncbi.nlm.nih.gov/books/NBK1196/#:~:text=same%20gene.-,Prevalence,-No%20accurate%20data" xr:uid="{35F3CAE4-FB6B-8E4C-A020-496203371765}"/>
-    <hyperlink ref="A63" r:id="rId26" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{61F5811C-05A2-454E-B166-55404D068068}"/>
-    <hyperlink ref="A65" r:id="rId27" display="* Some expanded alleles may be hypermethylated [Cortese et al 2023]." xr:uid="{52DE4118-41EB-2C49-9544-2511EB8D8A7F}"/>
-    <hyperlink ref="A67" r:id="rId28" display="$ Altered gene expression via hypermethylation is mediated by full-penetrance expansions in the following loci: AFF2 [Metsu et al 2014], AFF3 [Jadhav et al 2023], C9orf72 [Gijselinck et al 2016], DIP2B [Winnepenninckx et al 2007], DMPK [Steinbach et al 19" xr:uid="{1E240323-418F-7A4A-931E-954EB4B35D0A}"/>
-    <hyperlink ref="A69" r:id="rId29" display="^ With the exception of one 81-year old individual with 51 CAG repeats who was asymptomatic [Hattori et al 1999]." xr:uid="{D626FAD2-5CCF-F94E-B610-6E795F918A18}"/>
-    <hyperlink ref="A71" r:id="rId30" display="aa = amino acid; AD = autosomal dominant; ALS = amyotrophic lateral sclerosis; AR = autosomal recessive; ORF = open reading frame; MOI = mode of inheritance; UTR = untranslated region; XL = X-linked; Y = yes; N = no; i = interrupted by CAT repeat motifs; " xr:uid="{533221E0-C8F0-E142-A3F0-E78386A9797F}"/>
-    <hyperlink ref="A73" r:id="rId31" display="1. Proportion of pathogenic variants in this gene that are caused by a nucleotide repeat expansion or contraction." xr:uid="{D1FDB48F-5696-4D4F-AF6E-86A1EF929DD8}"/>
-    <hyperlink ref="A77" r:id="rId32" display="3. Includes data derived from the subscription-based professional view of Human Gene Mutation Database [Stenson et al 2020]." xr:uid="{6CC8149E-0BE1-8F44-9053-3B716E8960EB}"/>
-    <hyperlink ref="A79" r:id="rId33" display="4. Cortese et al [2023]." xr:uid="{A991AACB-2397-AE4D-9307-F597DB0CC006}"/>
-    <hyperlink ref="A81" r:id="rId34" display="5. Jadhav et al [2023]." xr:uid="{505DE172-500D-7D43-8D0C-879367D917B3}"/>
-    <hyperlink ref="A83" r:id="rId35" display="6. Tazelaar et al [2020]." xr:uid="{997A546F-626A-BB4F-BB7F-C06751DA6A7C}"/>
-    <hyperlink ref="A85" r:id="rId36" display="7. Penetrance is &lt;100%. Increased penetrance is reported for alleles of 54-250 CTA/CTG repeats. However, reduced penetrance has been reported at all allele sizes [Ranum et al 1999]." xr:uid="{F7534FF3-6556-744D-85D7-8496BA795FE2}"/>
-    <hyperlink ref="A87" r:id="rId37" display="8. Délot et al [1999]." xr:uid="{0D26912C-FE46-FE48-94D0-D235D952B9C1}"/>
-    <hyperlink ref="A89" r:id="rId38" display="9. FSHD results from contraction of the D4Z4 repeat array, which contains tandemly organized copies of 3.3-kilobase long tandem repeat units, on the permissive chromosome 4 haplotype with polyadenylation signal [Lemmers et al 2010]." xr:uid="{005F6AEA-42C2-F844-8C56-05213A59C0EF}"/>
-    <hyperlink ref="A92" r:id="rId39" display="• Normal repeat: CACA-20-nt(2-9)CA-18-nt(1)CACA-20-nt(1)CA-18-nt(1) – note, a normal allele has 5-12 total repeats." xr:uid="{920AD762-EC3C-2E41-A8C7-07583799E388}"/>
-    <hyperlink ref="A94" r:id="rId40" display="For the complete repeat sequence, see Favaro et al [2014]." xr:uid="{4C4568A7-609E-424D-91BB-3856EAFC3979}"/>
-    <hyperlink ref="A96" r:id="rId41" display="12. Ishiura et al [2019]." xr:uid="{10642715-694E-9242-89DD-AD05B26A4BBC}"/>
-    <hyperlink ref="A98" r:id="rId42" display="13. Kume et al [2023]." xr:uid="{43CC1B32-D551-CE4D-91EF-EE86AAA6B1AF}"/>
-    <hyperlink ref="A104" r:id="rId43" display="16. Blauw et al [2012]." xr:uid="{22DFFD24-F2E5-A344-A7A4-84B2B23EB56C}"/>
-    <hyperlink ref="A108" r:id="rId44" display="17. Reported as a GGC repeat [Sone et al 2019, Tian et al 2019] and as a CGG repeat [Ishiura et al 2019]." xr:uid="{5FCC204A-E485-7C4A-841F-6D5BB24C0C8B}"/>
-    <hyperlink ref="A112" r:id="rId45" display="19. PLIN4 minisatellite contains tandem copies of 99-mer or base pair repeat unit that encode 33 aminoacids each [Ruggieri et al 2020]." xr:uid="{6E7F3DD4-C0CB-CA4C-8289-6967159C197E}"/>
-    <hyperlink ref="A116" r:id="rId46" display="21. Yeetong et al [2024]." xr:uid="{10CDE929-E84B-ED40-A875-28BF8F1108E8}"/>
-    <hyperlink ref="A118" r:id="rId47" display="22. ACAGG repeat expansion (~1000 repeats) reported in three families [Scriba et al 2020, Tsuchiya et al 2020] (AAAGG)10-25 (AAGGG)exp(AAAGG)4-6 repeat expansion (990-1940 repeats) reported in 13 affected individuals [Beecroft et al 2020]." xr:uid="{0066A5CB-6046-0B48-974B-E2AC7654B808}"/>
-    <hyperlink ref="A120" r:id="rId48" display="23. Shibata et al [2016]." xr:uid="{CAEDDFEF-020D-D84A-8A09-2EFAEC78DB7E}"/>
-    <hyperlink ref="A122" r:id="rId49" display="24. Takagi et al [2014]." xr:uid="{F83D90E6-199B-C547-BBEE-3EDBF4CEC5C8}"/>
-    <hyperlink ref="A124" r:id="rId50" display="25. This hexanucleotide repeat (AGAGGG)n occurs within the TAF1 SINE-VNTR-Alu or SVA retrotransposon insertion that cause X-linked dystonia-parkinsonism and has the following structure: 5′-SINE-VNTR-Alu(AGAGGG)2AGGG(AGAGGG)n [Laß et al 2024]." xr:uid="{3699BBD1-20CB-3D40-89E1-7855309E0E2E}"/>
-    <hyperlink ref="A126" r:id="rId51" display="26. Penetrance is &lt;100%; reduced penetrance has been reported in individuals with &gt;80 CTG repeats [Wieben et al 2014]." xr:uid="{DE81C4F0-F7C6-374A-93BA-FBAAA2F1A705}"/>
-    <hyperlink ref="A128" r:id="rId52" display="27. Tan et al [2023]." xr:uid="{ECDD807C-BA45-1741-962B-35E6CC50FB6A}"/>
-    <hyperlink ref="A130" r:id="rId53" display="28. Wallenius et al [2024]." xr:uid="{BD556459-0EBA-2541-9067-B99E1C19D85D}"/>
-    <hyperlink ref="A132" r:id="rId54" display="29. Metsu et al [2014]." xr:uid="{B2865B07-5F92-7541-90A0-DF1557446C4A}"/>
-    <hyperlink ref="A106" r:id="rId55" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{FFFA5243-1EE7-F14B-978E-6FEFA616DFBE}"/>
-    <hyperlink ref="B3" r:id="rId56" display="Fragile X syndrome, FRAXE type (OMIM 309548)" xr:uid="{8B8310D9-4D1C-5744-97B4-EDB276EB15A5}"/>
-    <hyperlink ref="B5" r:id="rId57" xr:uid="{1EB0DA90-96AB-F54B-B12A-0E43C7891172}"/>
-    <hyperlink ref="B6" r:id="rId58" display="Early-infantile epileptic encephalopathy (OMIM 308350);_x000a_ _x000a_Partington syndrome (OMIM 309510)" xr:uid="{2C2DF378-71BD-1C4C-93F8-819BFB65BAFF}"/>
-    <hyperlink ref="B7" r:id="rId59" display="DRPLA" xr:uid="{51B86127-7C50-1446-B853-A46F73C164C0}"/>
-    <hyperlink ref="B8" r:id="rId60" display="Spinocerebellar ataxia type 1_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 6" xr:uid="{30CD820C-0297-CD43-9D5B-EABD4EA71E23}"/>
-    <hyperlink ref="B9" r:id="rId61" display="Spinocerebellar ataxia type 2_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 13 and Parkinsonian phenotype (OMIM 183090)" xr:uid="{50BE3E19-1E3A-3B42-9953-60AC3088C926}"/>
-    <hyperlink ref="B10" r:id="rId62" xr:uid="{C5AE5DFA-86EA-6C40-B9DE-C57DFFC7413A}"/>
-    <hyperlink ref="B11" r:id="rId63" xr:uid="{AF68CEE1-D1B8-EF43-9AE3-71B8D20E82AA}"/>
-    <hyperlink ref="B13" r:id="rId64" xr:uid="{34CCDDF4-57FF-EF45-BDE3-36CDD3F2A6D0}"/>
-    <hyperlink ref="B14" r:id="rId65" display="Spinocerebellar ataxia type 31 (OMIM 117210)" xr:uid="{58C16FF8-40FC-004C-AC79-B672FAA5DFE0}"/>
-    <hyperlink ref="B15" r:id="rId66" xr:uid="{1D9D2EA9-E3C4-0143-998F-1D32D80126F0}"/>
-    <hyperlink ref="B16" r:id="rId67" xr:uid="{E106990A-B2E2-6B43-AD17-943214871AD3}"/>
-    <hyperlink ref="B17" r:id="rId68" xr:uid="{814C64A6-2D4D-2B41-812E-5027AAC9F17A}"/>
-    <hyperlink ref="B19" r:id="rId69" xr:uid="{2622B7CA-C5B2-4743-BADE-1ABB1EA716CF}"/>
-    <hyperlink ref="B20" r:id="rId70" xr:uid="{17FEAB0E-852E-BF4D-AC6C-60763E62B431}"/>
-    <hyperlink ref="B21" r:id="rId71" display="Pierre Robin sequence with cleft mandible and limb anomalies (OMIM 268305)" xr:uid="{4079C6AF-7CF2-354B-8179-BF73B288111E}"/>
-    <hyperlink ref="B22" r:id="rId72" xr:uid="{1055A0D6-F268-C143-8574-2CDF0437E301}"/>
-    <hyperlink ref="B23" r:id="rId73" xr:uid="{872270E6-EFBA-EE48-9FE2-1E8389B6BA52}"/>
-    <hyperlink ref="B24" r:id="rId74" xr:uid="{6066D098-6EDA-FF42-9A16-E8269DC483A9}"/>
-    <hyperlink ref="B25" r:id="rId75" display="Oculopharyngodistal myopathy 2 (OMIM 618940)" xr:uid="{45AAD88F-E5F1-214C-A32F-EEF789B26134}"/>
-    <hyperlink ref="B26" r:id="rId76" display="Glutaminase deficiency with impaired intellectual development and progressive ataxia (OMIM 618412)" xr:uid="{2AC83480-4ECA-7C45-A79B-825AFE061531}"/>
-    <hyperlink ref="B27" r:id="rId77" display="Syndactyly type V (OMIM 186300)" xr:uid="{7E18A9CA-7E94-2F47-89C9-07AD51A6BD55}"/>
-    <hyperlink ref="B28" r:id="rId78" xr:uid="{98B5E6CD-0727-BB4D-AD6C-F3173520F919}"/>
-    <hyperlink ref="B29" r:id="rId79" xr:uid="{899ED2AC-5634-3D4E-8553-9B9EC42A63BB}"/>
-    <hyperlink ref="B30" r:id="rId80" display="Oculopharyngodistal myopathy (OMIM 164310) 12_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 13" xr:uid="{AD6C1B4F-5F17-8143-8567-BF8F07EC25A8}"/>
-    <hyperlink ref="B31" r:id="rId81" display="Familial adult myoclonic epilepsy 3 (OMIM 613608)" xr:uid="{A8A439CF-87B3-0F43-9628-DFE5174A5BD6}"/>
-    <hyperlink ref="B32" r:id="rId82" location=":~:text=Diagnosis-,Autosomal%20dominant%20tubulointerstitial%20kidney%20disease%20%E2%80%93%20MUC1%20(ADTKD%2DMUC1),sole%20manifestation%20of%20this%20disorder." xr:uid="{68415C96-F08C-6F42-8B30-BE2768F77918}"/>
-    <hyperlink ref="B34" r:id="rId83" display="Spinocerebellar ataxia type 36 (OMIM 614153)" xr:uid="{2E2F9533-D665-264C-B933-1E9D8C8452DC}"/>
-    <hyperlink ref="B35" r:id="rId84" display="Neuronal intranuclear inclusion disease (OMIM 603472)" xr:uid="{277B307A-B5EB-9F4A-A5D5-4D93569DF55A}"/>
-    <hyperlink ref="B36" r:id="rId85" display="Oculopharyngeal myopathy with leukoencephalopathy 1 (OMIM 618637)" xr:uid="{9DACA990-B699-1D4E-93B7-A2B465035ADE}"/>
-    <hyperlink ref="B37" r:id="rId86" xr:uid="{D6C0C8B8-0D9B-514E-9FE8-18C4EF300D4B}"/>
-    <hyperlink ref="B38" r:id="rId87" xr:uid="{8D3E37AB-D831-5943-90A8-C32D81D2633D}"/>
-    <hyperlink ref="B39" r:id="rId88" display="Myopathy with rimmed ubiquitin-positive autophagic vacuolation (OMIM 601846)" xr:uid="{0C654B2B-9BD4-174B-A916-F68602DD54E5}"/>
-    <hyperlink ref="B40" r:id="rId89" display="Spinocerebellar ataxia type 12 (OMIM 604326)" xr:uid="{F0DC8DAF-E5C2-8944-AABA-D196B1086FB2}"/>
-    <hyperlink ref="B41" r:id="rId90" display="Hereditary sensory and autonomic neuropathy type VIII (OMIM 616488)" xr:uid="{83420E8C-88B6-174E-9E14-24845330DF6A}"/>
-    <hyperlink ref="B42" r:id="rId91" xr:uid="{D0D3DAF2-0A4F-9E43-97BB-72BFAEDE87A9}"/>
-    <hyperlink ref="B43" r:id="rId92" display="Familial adult myoclonic epilepsy type 7 (OMIM 618075)" xr:uid="{8161BE93-EF33-DD4A-8D75-5C1691926CAC}"/>
-    <hyperlink ref="B44" r:id="rId93" xr:uid="{B60B7A82-A20F-E944-9D9A-BFE4B2106BD1}"/>
-    <hyperlink ref="B45" r:id="rId94" display="Oculopharyngodistal myopathy 4 (OMIM 619790)" xr:uid="{E94B5A97-37C0-0C4C-8FDB-DB0B8397290F}"/>
-    <hyperlink ref="B46" r:id="rId95" xr:uid="{C1E019DD-3CCC-1341-95F5-CA22BC0B0A67}"/>
-    <hyperlink ref="B47" r:id="rId96" display="Familial adult myoclonic epilepsy type 1 (OMIM 601068)" xr:uid="{EFEBA867-1C20-7445-B287-986911558536}"/>
-    <hyperlink ref="B48" r:id="rId97" display="Familial adult myoclonic epilepsy 2 (OMIM 607876)" xr:uid="{0C06DEE5-26E1-5547-8C12-A9E33566ED2D}"/>
-    <hyperlink ref="B49" r:id="rId98" xr:uid="{58715D43-7D0D-FD4F-A398-2DEC877A5487}"/>
-    <hyperlink ref="B50" r:id="rId99" xr:uid="{35D85029-C2D3-0E4F-8CCD-BD55A5015BE5}"/>
-    <hyperlink ref="B51" r:id="rId100" display="Tetralogy of Fallot (OMIM 602054)" xr:uid="{8B263B4A-8B87-374D-A1B2-7EF63975AA56}"/>
-    <hyperlink ref="B52" r:id="rId101" display="Fuchs endothelial corneal dystrophy 3 (OMIM 613267)" xr:uid="{C3774581-EF48-B545-BFA4-88A542272808}"/>
-    <hyperlink ref="B54" r:id="rId102" display="Familial adult myoclonic epilepsy type 6 (OMIM 618074)" xr:uid="{7BC4344C-2894-E34F-91FE-20B0262FD85F}"/>
-    <hyperlink ref="B55" r:id="rId103" display="Hereditary motor neuropathy (OMIM 619216)" xr:uid="{28E5C243-E17A-2943-BB16-85E0D1CBD49E}"/>
-    <hyperlink ref="B56" r:id="rId104" display="Baratela-Scott syndrome (Desbuquois dysplasia type 2; OMIM 615777)" xr:uid="{1D93272C-EC5D-D047-94DF-0945494FAA69}"/>
-    <hyperlink ref="B57" r:id="rId105" display="Familial adult myoclonic epilepsy 4 (OMIM 615127)" xr:uid="{3CE722FF-9CF4-1643-8658-41B30B1FCAB3}"/>
-    <hyperlink ref="B58" r:id="rId106" display="Spinocerebellar ataxia type 4 (OMIM 600223) 28" xr:uid="{2B068658-1F79-664F-80FC-E6F33210DF75}"/>
-    <hyperlink ref="B59" r:id="rId107" display="Holoprosencephaly type 5 (See Holoprosencephaly Overview.)" xr:uid="{9F35F041-5A06-444A-AC8B-0E931F125B4B}"/>
-    <hyperlink ref="B60" r:id="rId108" display="VACTERL (OMIM 300265)" xr:uid="{06B1D189-5DC3-9643-A4BC-7C81249EF233}"/>
-    <hyperlink ref="B106" r:id="rId109" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{797CE343-607B-034F-B114-8FDB369313A0}"/>
-    <hyperlink ref="B63" r:id="rId110" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{F04EF482-AF91-134A-BB2E-B6DC835A4371}"/>
-    <hyperlink ref="C106" r:id="rId111" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5519976E-ED34-9242-981F-9C56B064C4F5}"/>
-    <hyperlink ref="C63" r:id="rId112" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{2FB51E9B-58A1-A04B-AE31-C666D4A6F7CA}"/>
-    <hyperlink ref="B12" r:id="rId113" xr:uid="{593B8546-93D9-2F43-B840-D1B84572E918}"/>
-    <hyperlink ref="B18" r:id="rId114" xr:uid="{319B36A4-8767-C245-867B-602DE4318F59}"/>
-    <hyperlink ref="D4" r:id="rId115" xr:uid="{2F75FB8A-5387-F14D-8E3E-1FEEC048E809}"/>
-    <hyperlink ref="D9" r:id="rId116" location=":~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" display="https://www.ncbi.nlm.nih.gov/books/NBK1275/#:~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" xr:uid="{62ED637E-7B94-A346-B7DD-44EE12A184BA}"/>
-    <hyperlink ref="D12" r:id="rId117" location=":~:text=al%202000%5D.-,Prevalence,-There%20are%20no" xr:uid="{E4DE2169-6C0B-7F43-BBA6-05AB11FC8D6C}"/>
-    <hyperlink ref="D15" r:id="rId118" location=":~:text=It%20is%20important%20to%20note%20that%20the%20frequency%20of%20C9orf72%20G4C2%20repeat%20expansions%20greatly%20depends%20on%20ethnicity%20and%20geographic%20region." xr:uid="{91F886B3-0381-E94A-8A4D-0799340BBE72}"/>
-    <hyperlink ref="D14" r:id="rId119" xr:uid="{97CEF37B-B808-1D4E-92EB-4EB7B13D757F}"/>
-    <hyperlink ref="D26" r:id="rId120" location=":~:text=neurogenesis%20and%20neurotransmission.-,CASE%20REPORT,-Three%20unrelated%20patients" xr:uid="{A568CBD4-9487-4A4D-87CE-33A8A30188E1}"/>
-    <hyperlink ref="D28" r:id="rId121" location=":~:text=have%20manifest%20HD.-,Prevalence,-HD%20prevalence%20varies" xr:uid="{16597CE0-385D-8248-96D7-F8B5BE20DA59}"/>
-    <hyperlink ref="D32" r:id="rId122" xr:uid="{88351F2D-A5B7-DD46-BC2D-9F2BF4E50F84}"/>
-    <hyperlink ref="D39" r:id="rId123" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{9FF4F605-A19B-0943-B2BD-744652E58D32}"/>
-    <hyperlink ref="D59" r:id="rId124" xr:uid="{B23A76A7-C6B4-4743-A2A1-01FFF98B3476}"/>
-    <hyperlink ref="D58" r:id="rId125" xr:uid="{AE1CFF56-233A-A841-A735-69CD0A6BFEE4}"/>
-    <hyperlink ref="D57" r:id="rId126" xr:uid="{3F33ED6D-B7EA-DB4A-AE73-59FA51F42900}"/>
-    <hyperlink ref="D55" r:id="rId127" xr:uid="{5063255B-AC26-684F-999F-B9277DEFCD7F}"/>
-    <hyperlink ref="D54" r:id="rId128" xr:uid="{E3E3DD13-BC55-CF4C-9774-AFAD2855115C}"/>
-    <hyperlink ref="D53" r:id="rId129" location=":~:text=We%20performed%20long%2Dread%20whole%2Dgenome%20sequencing%20combined%20with%20linkage%20analysis%20in%20a%20five%2Dgeneration%20Chinese%20family" xr:uid="{6F842D6E-F51B-7249-8EA7-932D59381BBE}"/>
-    <hyperlink ref="D51" r:id="rId130" location=":~:text=In%20a%20Turkish%20patient" xr:uid="{D0E1FF9E-D39B-2E40-A1E3-59E6DBDC6057}"/>
-    <hyperlink ref="D50" r:id="rId131" location=":~:text=size%20of%20expansion.-,Prevalence,-Fewer%20than%20100" xr:uid="{E01EDF46-401F-6E40-BFB5-C4669B484895}"/>
-    <hyperlink ref="D49" r:id="rId132" location=":~:text=persons%20with%20XDP.-,Prevalence,-The%20first%20epidemiologic" xr:uid="{2C7F15F2-3A56-2045-AE2A-CDE25E378192}"/>
-    <hyperlink ref="D46" r:id="rId133" location=":~:text=in%20bone%20maintenance.-,Prevalence,-Stevenson%20et%20al" xr:uid="{A4DF3BAD-41C1-3848-BCC4-2E37EFB3CAEB}"/>
-    <hyperlink ref="D42" r:id="rId134" xr:uid="{D3DF56EB-CFDF-0149-AC67-6296E0604369}"/>
-    <hyperlink ref="D41" r:id="rId135" xr:uid="{BB6C716A-4A5C-E649-8D2B-94DD60A55728}"/>
-    <hyperlink ref="D40" r:id="rId136" xr:uid="{344E7A32-E29A-A244-96AF-A5523E2251E2}"/>
-    <hyperlink ref="D44" r:id="rId137" location=":~:text=have%20been%20identified.-,Prevalence,-The%20heterozygote%20carrier" xr:uid="{388F55FE-2ECE-E74D-8E97-DAD40FA62A12}"/>
-    <hyperlink ref="D45" r:id="rId138" xr:uid="{F0B9DD25-45AA-F04C-AA50-A4C6435A5668}"/>
-    <hyperlink ref="D48" r:id="rId139" location=":~:text=chr29.-,Table%201.,-Clinical%20summaries%20of" xr:uid="{D5584F66-E847-CF4B-9E7E-805326ACAED7}"/>
-    <hyperlink ref="D52" r:id="rId140" location=":~:text=and%20global%20populations.-,Results,-The%20carrier%20rates" xr:uid="{11BE8414-289F-1842-B272-D278AB59881F}"/>
-    <hyperlink ref="D56" r:id="rId141" xr:uid="{83600682-24F9-1C40-BDDF-1D74C5E16E1D}"/>
-    <hyperlink ref="D60" r:id="rId142" xr:uid="{3CF5D75F-E255-1745-BC88-1E6DBF01C580}"/>
-    <hyperlink ref="D23" r:id="rId143" xr:uid="{42506FAB-00AD-4446-970F-B5AD201D695C}"/>
-    <hyperlink ref="E107" r:id="rId144" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5708B881-6B56-704C-88BD-EE98D6187B90}"/>
-    <hyperlink ref="D2" r:id="rId145" location=":~:text=underlying%20muscle%20degeneration.-,Results,-We%20report%2035" xr:uid="{8372C5E4-6CB5-B644-BA6D-8742C98A64F7}"/>
+    <hyperlink ref="D11" r:id="rId3" location=":~:text=ADCA%20type%20II.-,Prevalence,-The%20prevalence%20is" display="https://www.ncbi.nlm.nih.gov/books/NBK1256/#:~:text=ADCA%20type%20II.-,Prevalence,-The%20prevalence%20is" xr:uid="{387BC039-84BB-8F41-9DF7-B8359C7C1B35}"/>
+    <hyperlink ref="D13" r:id="rId4" location=":~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence" display="https://www.ncbi.nlm.nih.gov/books/NBK1175/#:~:text=al%202013%5D.-,Prevalence,-The%20exact%20prevalence" xr:uid="{D225C22A-94FA-7F46-8890-F5A065009635}"/>
+    <hyperlink ref="D17" r:id="rId5" location=":~:text=variant%20in%20VCP.-,Prevalence,-Prevalence%20appears%20to" xr:uid="{18E56BD3-8D7E-C648-8216-1116C5AFE241}"/>
+    <hyperlink ref="D18" r:id="rId6" location=":~:text=longer%20be%20used.-,Prevalence,-EPM1%20has%20the" xr:uid="{7A01F5B4-F007-954A-9D39-6B00742D8302}"/>
+    <hyperlink ref="D19" r:id="rId7" location=":~:text=the%20transmitting%20parent.-,Prevalence,-To%20date%2C%2066" xr:uid="{FB289A98-CDE9-584E-A386-B336BCEACE4B}"/>
+    <hyperlink ref="D20" r:id="rId8" location=":~:text=al%202015%5D.-,Prevalence,-Estimates%20of%20the" xr:uid="{7CE07B54-1E80-A74F-A605-C42206FAB213}"/>
+    <hyperlink ref="D21" r:id="rId9" xr:uid="{E4499C50-0F4B-7741-82A6-16CDA839D5D0}"/>
+    <hyperlink ref="D16" r:id="rId10" location=":~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" display="https://www.ncbi.nlm.nih.gov/books/NBK1140/#:~:text=have%20included%20SCA6.-,Prevalence,-The%20prevalence%20of" xr:uid="{51A202AC-CC99-A849-837C-FD9410C84F43}"/>
+    <hyperlink ref="D22" r:id="rId11" location=":~:text=%2Drelated%20ataxia.-,Prevalence,-The%20prevalence%20of" xr:uid="{A4684C2C-1D3C-AA4C-A9D2-C5CD7A93BBAF}"/>
+    <hyperlink ref="D24" r:id="rId12" location=":~:text=only%20one%20generation.-,Prevalence,-The%20prevalence%20of" xr:uid="{71E6A67D-64ED-D942-8965-FB3A4DD59658}"/>
+    <hyperlink ref="D27" r:id="rId13" location=":~:text=involving%20CREBBP.-,Prevalence,-The%20birth%20prevalence" xr:uid="{04AFB5B0-A6FF-CA43-9185-7736B0A19BAC}"/>
+    <hyperlink ref="D29" r:id="rId14" location=":~:text=to%20as%20HD2.-,Prevalence,-Although%20rare%2C%20HDL2" xr:uid="{21F86D3A-5351-7C4D-8051-0FFAD643B3D2}"/>
+    <hyperlink ref="D30" r:id="rId15" xr:uid="{0F5B75AF-5900-E241-A711-9F2B72CC3B0E}"/>
+    <hyperlink ref="D31" r:id="rId16" xr:uid="{272579D8-E456-754C-8B2C-98318A18C0AF}"/>
+    <hyperlink ref="D35" r:id="rId17" xr:uid="{1F724DB7-253F-2D42-9EAE-C91B0558F7A6}"/>
+    <hyperlink ref="D34" r:id="rId18" xr:uid="{97B4DBF4-817E-6B4A-9DE3-E76AA31701A4}"/>
+    <hyperlink ref="D36" r:id="rId19" xr:uid="{F2447E3D-FD10-444A-859D-DB8F1BCC0E14}"/>
+    <hyperlink ref="D37" r:id="rId20" location=":~:text=technical%20considerations).-,Prevalence,-The%20prevalence%20of" xr:uid="{8B46876B-9B39-A044-A5A7-094B9650FC20}"/>
+    <hyperlink ref="D38" r:id="rId21" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{59FB008D-CDE2-274A-BD5D-91B698ACC648}"/>
+    <hyperlink ref="D3" r:id="rId22" display="https://omim.org/entry/309548, " xr:uid="{6CFB2BE3-44BB-2945-AF7D-E4442E292425}"/>
+    <hyperlink ref="D7" r:id="rId23" location=":~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more" display="https://www.ncbi.nlm.nih.gov/books/NBK1491/#:~:text=mendelian%20genetic%20disorders).-,Prevalence,-DRPLA%20is%20more" xr:uid="{E8D4A945-4899-C74F-A5C0-C8E369E2B6D4}"/>
+    <hyperlink ref="D10" r:id="rId24" location=":~:text=same%20gene.-,Prevalence,-No%20accurate%20data" display="https://www.ncbi.nlm.nih.gov/books/NBK1196/#:~:text=same%20gene.-,Prevalence,-No%20accurate%20data" xr:uid="{35F3CAE4-FB6B-8E4C-A020-496203371765}"/>
+    <hyperlink ref="A63" r:id="rId25" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{61F5811C-05A2-454E-B166-55404D068068}"/>
+    <hyperlink ref="A65" r:id="rId26" display="* Some expanded alleles may be hypermethylated [Cortese et al 2023]." xr:uid="{52DE4118-41EB-2C49-9544-2511EB8D8A7F}"/>
+    <hyperlink ref="A67" r:id="rId27" display="$ Altered gene expression via hypermethylation is mediated by full-penetrance expansions in the following loci: AFF2 [Metsu et al 2014], AFF3 [Jadhav et al 2023], C9orf72 [Gijselinck et al 2016], DIP2B [Winnepenninckx et al 2007], DMPK [Steinbach et al 19" xr:uid="{1E240323-418F-7A4A-931E-954EB4B35D0A}"/>
+    <hyperlink ref="A69" r:id="rId28" display="^ With the exception of one 81-year old individual with 51 CAG repeats who was asymptomatic [Hattori et al 1999]." xr:uid="{D626FAD2-5CCF-F94E-B610-6E795F918A18}"/>
+    <hyperlink ref="A71" r:id="rId29" display="aa = amino acid; AD = autosomal dominant; ALS = amyotrophic lateral sclerosis; AR = autosomal recessive; ORF = open reading frame; MOI = mode of inheritance; UTR = untranslated region; XL = X-linked; Y = yes; N = no; i = interrupted by CAT repeat motifs; " xr:uid="{533221E0-C8F0-E142-A3F0-E78386A9797F}"/>
+    <hyperlink ref="A73" r:id="rId30" display="1. Proportion of pathogenic variants in this gene that are caused by a nucleotide repeat expansion or contraction." xr:uid="{D1FDB48F-5696-4D4F-AF6E-86A1EF929DD8}"/>
+    <hyperlink ref="A77" r:id="rId31" display="3. Includes data derived from the subscription-based professional view of Human Gene Mutation Database [Stenson et al 2020]." xr:uid="{6CC8149E-0BE1-8F44-9053-3B716E8960EB}"/>
+    <hyperlink ref="A79" r:id="rId32" display="4. Cortese et al [2023]." xr:uid="{A991AACB-2397-AE4D-9307-F597DB0CC006}"/>
+    <hyperlink ref="A81" r:id="rId33" display="5. Jadhav et al [2023]." xr:uid="{505DE172-500D-7D43-8D0C-879367D917B3}"/>
+    <hyperlink ref="A83" r:id="rId34" display="6. Tazelaar et al [2020]." xr:uid="{997A546F-626A-BB4F-BB7F-C06751DA6A7C}"/>
+    <hyperlink ref="A85" r:id="rId35" display="7. Penetrance is &lt;100%. Increased penetrance is reported for alleles of 54-250 CTA/CTG repeats. However, reduced penetrance has been reported at all allele sizes [Ranum et al 1999]." xr:uid="{F7534FF3-6556-744D-85D7-8496BA795FE2}"/>
+    <hyperlink ref="A87" r:id="rId36" display="8. Délot et al [1999]." xr:uid="{0D26912C-FE46-FE48-94D0-D235D952B9C1}"/>
+    <hyperlink ref="A89" r:id="rId37" display="9. FSHD results from contraction of the D4Z4 repeat array, which contains tandemly organized copies of 3.3-kilobase long tandem repeat units, on the permissive chromosome 4 haplotype with polyadenylation signal [Lemmers et al 2010]." xr:uid="{005F6AEA-42C2-F844-8C56-05213A59C0EF}"/>
+    <hyperlink ref="A92" r:id="rId38" display="• Normal repeat: CACA-20-nt(2-9)CA-18-nt(1)CACA-20-nt(1)CA-18-nt(1) – note, a normal allele has 5-12 total repeats." xr:uid="{920AD762-EC3C-2E41-A8C7-07583799E388}"/>
+    <hyperlink ref="A94" r:id="rId39" display="For the complete repeat sequence, see Favaro et al [2014]." xr:uid="{4C4568A7-609E-424D-91BB-3856EAFC3979}"/>
+    <hyperlink ref="A96" r:id="rId40" display="12. Ishiura et al [2019]." xr:uid="{10642715-694E-9242-89DD-AD05B26A4BBC}"/>
+    <hyperlink ref="A98" r:id="rId41" display="13. Kume et al [2023]." xr:uid="{43CC1B32-D551-CE4D-91EF-EE86AAA6B1AF}"/>
+    <hyperlink ref="A104" r:id="rId42" display="16. Blauw et al [2012]." xr:uid="{22DFFD24-F2E5-A344-A7A4-84B2B23EB56C}"/>
+    <hyperlink ref="A108" r:id="rId43" display="17. Reported as a GGC repeat [Sone et al 2019, Tian et al 2019] and as a CGG repeat [Ishiura et al 2019]." xr:uid="{5FCC204A-E485-7C4A-841F-6D5BB24C0C8B}"/>
+    <hyperlink ref="A112" r:id="rId44" display="19. PLIN4 minisatellite contains tandem copies of 99-mer or base pair repeat unit that encode 33 aminoacids each [Ruggieri et al 2020]." xr:uid="{6E7F3DD4-C0CB-CA4C-8289-6967159C197E}"/>
+    <hyperlink ref="A116" r:id="rId45" display="21. Yeetong et al [2024]." xr:uid="{10CDE929-E84B-ED40-A875-28BF8F1108E8}"/>
+    <hyperlink ref="A118" r:id="rId46" display="22. ACAGG repeat expansion (~1000 repeats) reported in three families [Scriba et al 2020, Tsuchiya et al 2020] (AAAGG)10-25 (AAGGG)exp(AAAGG)4-6 repeat expansion (990-1940 repeats) reported in 13 affected individuals [Beecroft et al 2020]." xr:uid="{0066A5CB-6046-0B48-974B-E2AC7654B808}"/>
+    <hyperlink ref="A120" r:id="rId47" display="23. Shibata et al [2016]." xr:uid="{CAEDDFEF-020D-D84A-8A09-2EFAEC78DB7E}"/>
+    <hyperlink ref="A122" r:id="rId48" display="24. Takagi et al [2014]." xr:uid="{F83D90E6-199B-C547-BBEE-3EDBF4CEC5C8}"/>
+    <hyperlink ref="A124" r:id="rId49" display="25. This hexanucleotide repeat (AGAGGG)n occurs within the TAF1 SINE-VNTR-Alu or SVA retrotransposon insertion that cause X-linked dystonia-parkinsonism and has the following structure: 5′-SINE-VNTR-Alu(AGAGGG)2AGGG(AGAGGG)n [Laß et al 2024]." xr:uid="{3699BBD1-20CB-3D40-89E1-7855309E0E2E}"/>
+    <hyperlink ref="A126" r:id="rId50" display="26. Penetrance is &lt;100%; reduced penetrance has been reported in individuals with &gt;80 CTG repeats [Wieben et al 2014]." xr:uid="{DE81C4F0-F7C6-374A-93BA-FBAAA2F1A705}"/>
+    <hyperlink ref="A128" r:id="rId51" display="27. Tan et al [2023]." xr:uid="{ECDD807C-BA45-1741-962B-35E6CC50FB6A}"/>
+    <hyperlink ref="A130" r:id="rId52" display="28. Wallenius et al [2024]." xr:uid="{BD556459-0EBA-2541-9067-B99E1C19D85D}"/>
+    <hyperlink ref="A132" r:id="rId53" display="29. Metsu et al [2014]." xr:uid="{B2865B07-5F92-7541-90A0-DF1557446C4A}"/>
+    <hyperlink ref="A106" r:id="rId54" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{FFFA5243-1EE7-F14B-978E-6FEFA616DFBE}"/>
+    <hyperlink ref="B3" r:id="rId55" display="Fragile X syndrome, FRAXE type (OMIM 309548)" xr:uid="{8B8310D9-4D1C-5744-97B4-EDB276EB15A5}"/>
+    <hyperlink ref="B5" r:id="rId56" xr:uid="{1EB0DA90-96AB-F54B-B12A-0E43C7891172}"/>
+    <hyperlink ref="B6" r:id="rId57" display="Early-infantile epileptic encephalopathy (OMIM 308350);_x000a_ _x000a_Partington syndrome (OMIM 309510)" xr:uid="{2C2DF378-71BD-1C4C-93F8-819BFB65BAFF}"/>
+    <hyperlink ref="B7" r:id="rId58" display="DRPLA" xr:uid="{51B86127-7C50-1446-B853-A46F73C164C0}"/>
+    <hyperlink ref="B8" r:id="rId59" display="Spinocerebellar ataxia type 1_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 6" xr:uid="{30CD820C-0297-CD43-9D5B-EABD4EA71E23}"/>
+    <hyperlink ref="B9" r:id="rId60" display="Spinocerebellar ataxia type 2_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 13 and Parkinsonian phenotype (OMIM 183090)" xr:uid="{50BE3E19-1E3A-3B42-9953-60AC3088C926}"/>
+    <hyperlink ref="B10" r:id="rId61" xr:uid="{C5AE5DFA-86EA-6C40-B9DE-C57DFFC7413A}"/>
+    <hyperlink ref="B11" r:id="rId62" xr:uid="{AF68CEE1-D1B8-EF43-9AE3-71B8D20E82AA}"/>
+    <hyperlink ref="B13" r:id="rId63" xr:uid="{34CCDDF4-57FF-EF45-BDE3-36CDD3F2A6D0}"/>
+    <hyperlink ref="B14" r:id="rId64" display="Spinocerebellar ataxia type 31 (OMIM 117210)" xr:uid="{58C16FF8-40FC-004C-AC79-B672FAA5DFE0}"/>
+    <hyperlink ref="B15" r:id="rId65" xr:uid="{1D9D2EA9-E3C4-0143-998F-1D32D80126F0}"/>
+    <hyperlink ref="B16" r:id="rId66" xr:uid="{E106990A-B2E2-6B43-AD17-943214871AD3}"/>
+    <hyperlink ref="B17" r:id="rId67" xr:uid="{814C64A6-2D4D-2B41-812E-5027AAC9F17A}"/>
+    <hyperlink ref="B19" r:id="rId68" xr:uid="{2622B7CA-C5B2-4743-BADE-1ABB1EA716CF}"/>
+    <hyperlink ref="B20" r:id="rId69" xr:uid="{17FEAB0E-852E-BF4D-AC6C-60763E62B431}"/>
+    <hyperlink ref="B21" r:id="rId70" display="Pierre Robin sequence with cleft mandible and limb anomalies (OMIM 268305)" xr:uid="{4079C6AF-7CF2-354B-8179-BF73B288111E}"/>
+    <hyperlink ref="B22" r:id="rId71" xr:uid="{1055A0D6-F268-C143-8574-2CDF0437E301}"/>
+    <hyperlink ref="B23" r:id="rId72" xr:uid="{872270E6-EFBA-EE48-9FE2-1E8389B6BA52}"/>
+    <hyperlink ref="B24" r:id="rId73" xr:uid="{6066D098-6EDA-FF42-9A16-E8269DC483A9}"/>
+    <hyperlink ref="B25" r:id="rId74" display="Oculopharyngodistal myopathy 2 (OMIM 618940)" xr:uid="{45AAD88F-E5F1-214C-A32F-EEF789B26134}"/>
+    <hyperlink ref="B26" r:id="rId75" display="Glutaminase deficiency with impaired intellectual development and progressive ataxia (OMIM 618412)" xr:uid="{2AC83480-4ECA-7C45-A79B-825AFE061531}"/>
+    <hyperlink ref="B27" r:id="rId76" display="Syndactyly type V (OMIM 186300)" xr:uid="{7E18A9CA-7E94-2F47-89C9-07AD51A6BD55}"/>
+    <hyperlink ref="B28" r:id="rId77" xr:uid="{98B5E6CD-0727-BB4D-AD6C-F3173520F919}"/>
+    <hyperlink ref="B29" r:id="rId78" xr:uid="{899ED2AC-5634-3D4E-8553-9B9EC42A63BB}"/>
+    <hyperlink ref="B30" r:id="rId79" display="Oculopharyngodistal myopathy (OMIM 164310) 12_x000a__x000a_Susceptibility to amyotrophic lateral sclerosis 13" xr:uid="{AD6C1B4F-5F17-8143-8567-BF8F07EC25A8}"/>
+    <hyperlink ref="B31" r:id="rId80" display="Familial adult myoclonic epilepsy 3 (OMIM 613608)" xr:uid="{A8A439CF-87B3-0F43-9628-DFE5174A5BD6}"/>
+    <hyperlink ref="B32" r:id="rId81" location=":~:text=Diagnosis-,Autosomal%20dominant%20tubulointerstitial%20kidney%20disease%20%E2%80%93%20MUC1%20(ADTKD%2DMUC1),sole%20manifestation%20of%20this%20disorder." xr:uid="{68415C96-F08C-6F42-8B30-BE2768F77918}"/>
+    <hyperlink ref="B34" r:id="rId82" display="Spinocerebellar ataxia type 36 (OMIM 614153)" xr:uid="{2E2F9533-D665-264C-B933-1E9D8C8452DC}"/>
+    <hyperlink ref="B35" r:id="rId83" display="Neuronal intranuclear inclusion disease (OMIM 603472)" xr:uid="{277B307A-B5EB-9F4A-A5D5-4D93569DF55A}"/>
+    <hyperlink ref="B36" r:id="rId84" display="Oculopharyngeal myopathy with leukoencephalopathy 1 (OMIM 618637)" xr:uid="{9DACA990-B699-1D4E-93B7-A2B465035ADE}"/>
+    <hyperlink ref="B37" r:id="rId85" xr:uid="{D6C0C8B8-0D9B-514E-9FE8-18C4EF300D4B}"/>
+    <hyperlink ref="B38" r:id="rId86" xr:uid="{8D3E37AB-D831-5943-90A8-C32D81D2633D}"/>
+    <hyperlink ref="B39" r:id="rId87" display="Myopathy with rimmed ubiquitin-positive autophagic vacuolation (OMIM 601846)" xr:uid="{0C654B2B-9BD4-174B-A916-F68602DD54E5}"/>
+    <hyperlink ref="B40" r:id="rId88" display="Spinocerebellar ataxia type 12 (OMIM 604326)" xr:uid="{F0DC8DAF-E5C2-8944-AABA-D196B1086FB2}"/>
+    <hyperlink ref="B41" r:id="rId89" display="Hereditary sensory and autonomic neuropathy type VIII (OMIM 616488)" xr:uid="{83420E8C-88B6-174E-9E14-24845330DF6A}"/>
+    <hyperlink ref="B42" r:id="rId90" xr:uid="{D0D3DAF2-0A4F-9E43-97BB-72BFAEDE87A9}"/>
+    <hyperlink ref="B43" r:id="rId91" display="Familial adult myoclonic epilepsy type 7 (OMIM 618075)" xr:uid="{8161BE93-EF33-DD4A-8D75-5C1691926CAC}"/>
+    <hyperlink ref="B44" r:id="rId92" xr:uid="{B60B7A82-A20F-E944-9D9A-BFE4B2106BD1}"/>
+    <hyperlink ref="B45" r:id="rId93" display="Oculopharyngodistal myopathy 4 (OMIM 619790)" xr:uid="{E94B5A97-37C0-0C4C-8FDB-DB0B8397290F}"/>
+    <hyperlink ref="B46" r:id="rId94" xr:uid="{C1E019DD-3CCC-1341-95F5-CA22BC0B0A67}"/>
+    <hyperlink ref="B47" r:id="rId95" display="Familial adult myoclonic epilepsy type 1 (OMIM 601068)" xr:uid="{EFEBA867-1C20-7445-B287-986911558536}"/>
+    <hyperlink ref="B48" r:id="rId96" display="Familial adult myoclonic epilepsy 2 (OMIM 607876)" xr:uid="{0C06DEE5-26E1-5547-8C12-A9E33566ED2D}"/>
+    <hyperlink ref="B49" r:id="rId97" xr:uid="{58715D43-7D0D-FD4F-A398-2DEC877A5487}"/>
+    <hyperlink ref="B50" r:id="rId98" xr:uid="{35D85029-C2D3-0E4F-8CCD-BD55A5015BE5}"/>
+    <hyperlink ref="B51" r:id="rId99" display="Tetralogy of Fallot (OMIM 602054)" xr:uid="{8B263B4A-8B87-374D-A1B2-7EF63975AA56}"/>
+    <hyperlink ref="B52" r:id="rId100" display="Fuchs endothelial corneal dystrophy 3 (OMIM 613267)" xr:uid="{C3774581-EF48-B545-BFA4-88A542272808}"/>
+    <hyperlink ref="B54" r:id="rId101" display="Familial adult myoclonic epilepsy type 6 (OMIM 618074)" xr:uid="{7BC4344C-2894-E34F-91FE-20B0262FD85F}"/>
+    <hyperlink ref="B55" r:id="rId102" display="Hereditary motor neuropathy (OMIM 619216)" xr:uid="{28E5C243-E17A-2943-BB16-85E0D1CBD49E}"/>
+    <hyperlink ref="B56" r:id="rId103" display="Baratela-Scott syndrome (Desbuquois dysplasia type 2; OMIM 615777)" xr:uid="{1D93272C-EC5D-D047-94DF-0945494FAA69}"/>
+    <hyperlink ref="B57" r:id="rId104" display="Familial adult myoclonic epilepsy 4 (OMIM 615127)" xr:uid="{3CE722FF-9CF4-1643-8658-41B30B1FCAB3}"/>
+    <hyperlink ref="B58" r:id="rId105" display="Spinocerebellar ataxia type 4 (OMIM 600223) 28" xr:uid="{2B068658-1F79-664F-80FC-E6F33210DF75}"/>
+    <hyperlink ref="B59" r:id="rId106" display="Holoprosencephaly type 5 (See Holoprosencephaly Overview.)" xr:uid="{9F35F041-5A06-444A-AC8B-0E931F125B4B}"/>
+    <hyperlink ref="B60" r:id="rId107" display="VACTERL (OMIM 300265)" xr:uid="{06B1D189-5DC3-9643-A4BC-7C81249EF233}"/>
+    <hyperlink ref="B106" r:id="rId108" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{797CE343-607B-034F-B114-8FDB369313A0}"/>
+    <hyperlink ref="B63" r:id="rId109" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{F04EF482-AF91-134A-BB2E-B6DC835A4371}"/>
+    <hyperlink ref="C106" r:id="rId110" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5519976E-ED34-9242-981F-9C56B064C4F5}"/>
+    <hyperlink ref="C63" r:id="rId111" display="The human genome contains a total of ~11 million short tandem repeats with 2-6 base pair motifs. Of these, ~5.5 million are present within genes and ~135,000 within coding regions of genes [Chiu et al 2024]." xr:uid="{2FB51E9B-58A1-A04B-AE31-C666D4A6F7CA}"/>
+    <hyperlink ref="B12" r:id="rId112" xr:uid="{593B8546-93D9-2F43-B840-D1B84572E918}"/>
+    <hyperlink ref="B18" r:id="rId113" xr:uid="{319B36A4-8767-C245-867B-602DE4318F59}"/>
+    <hyperlink ref="D4" r:id="rId114" xr:uid="{2F75FB8A-5387-F14D-8E3E-1FEEC048E809}"/>
+    <hyperlink ref="D9" r:id="rId115" location=":~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" display="https://www.ncbi.nlm.nih.gov/books/NBK1275/#:~:text=longer%20in%20use.-,Prevalence,-Geschwind%20et%20al" xr:uid="{62ED637E-7B94-A346-B7DD-44EE12A184BA}"/>
+    <hyperlink ref="D12" r:id="rId116" location=":~:text=al%202000%5D.-,Prevalence,-There%20are%20no" xr:uid="{E4DE2169-6C0B-7F43-BBA6-05AB11FC8D6C}"/>
+    <hyperlink ref="D15" r:id="rId117" location=":~:text=It%20is%20important%20to%20note%20that%20the%20frequency%20of%20C9orf72%20G4C2%20repeat%20expansions%20greatly%20depends%20on%20ethnicity%20and%20geographic%20region." xr:uid="{91F886B3-0381-E94A-8A4D-0799340BBE72}"/>
+    <hyperlink ref="D14" r:id="rId118" xr:uid="{97CEF37B-B808-1D4E-92EB-4EB7B13D757F}"/>
+    <hyperlink ref="D26" r:id="rId119" location=":~:text=neurogenesis%20and%20neurotransmission.-,CASE%20REPORT,-Three%20unrelated%20patients" xr:uid="{A568CBD4-9487-4A4D-87CE-33A8A30188E1}"/>
+    <hyperlink ref="D28" r:id="rId120" location=":~:text=have%20manifest%20HD.-,Prevalence,-HD%20prevalence%20varies" xr:uid="{16597CE0-385D-8248-96D7-F8B5BE20DA59}"/>
+    <hyperlink ref="D32" r:id="rId121" xr:uid="{88351F2D-A5B7-DD46-BC2D-9F2BF4E50F84}"/>
+    <hyperlink ref="D39" r:id="rId122" location=":~:text=not%20widely%20used.-,Prevalence,-Until%20a%20large" xr:uid="{9FF4F605-A19B-0943-B2BD-744652E58D32}"/>
+    <hyperlink ref="D59" r:id="rId123" xr:uid="{B23A76A7-C6B4-4743-A2A1-01FFF98B3476}"/>
+    <hyperlink ref="D58" r:id="rId124" xr:uid="{AE1CFF56-233A-A841-A735-69CD0A6BFEE4}"/>
+    <hyperlink ref="D57" r:id="rId125" xr:uid="{3F33ED6D-B7EA-DB4A-AE73-59FA51F42900}"/>
+    <hyperlink ref="D55" r:id="rId126" xr:uid="{5063255B-AC26-684F-999F-B9277DEFCD7F}"/>
+    <hyperlink ref="D54" r:id="rId127" xr:uid="{E3E3DD13-BC55-CF4C-9774-AFAD2855115C}"/>
+    <hyperlink ref="D53" r:id="rId128" location=":~:text=We%20performed%20long%2Dread%20whole%2Dgenome%20sequencing%20combined%20with%20linkage%20analysis%20in%20a%20five%2Dgeneration%20Chinese%20family" xr:uid="{6F842D6E-F51B-7249-8EA7-932D59381BBE}"/>
+    <hyperlink ref="D51" r:id="rId129" location=":~:text=In%20a%20Turkish%20patient" xr:uid="{D0E1FF9E-D39B-2E40-A1E3-59E6DBDC6057}"/>
+    <hyperlink ref="D50" r:id="rId130" location=":~:text=size%20of%20expansion.-,Prevalence,-Fewer%20than%20100" xr:uid="{E01EDF46-401F-6E40-BFB5-C4669B484895}"/>
+    <hyperlink ref="D49" r:id="rId131" location=":~:text=persons%20with%20XDP.-,Prevalence,-The%20first%20epidemiologic" xr:uid="{2C7F15F2-3A56-2045-AE2A-CDE25E378192}"/>
+    <hyperlink ref="D46" r:id="rId132" location=":~:text=in%20bone%20maintenance.-,Prevalence,-Stevenson%20et%20al" xr:uid="{A4DF3BAD-41C1-3848-BCC4-2E37EFB3CAEB}"/>
+    <hyperlink ref="D42" r:id="rId133" xr:uid="{D3DF56EB-CFDF-0149-AC67-6296E0604369}"/>
+    <hyperlink ref="D41" r:id="rId134" xr:uid="{BB6C716A-4A5C-E649-8D2B-94DD60A55728}"/>
+    <hyperlink ref="D40" r:id="rId135" xr:uid="{344E7A32-E29A-A244-96AF-A5523E2251E2}"/>
+    <hyperlink ref="D44" r:id="rId136" location=":~:text=have%20been%20identified.-,Prevalence,-The%20heterozygote%20carrier" xr:uid="{388F55FE-2ECE-E74D-8E97-DAD40FA62A12}"/>
+    <hyperlink ref="D45" r:id="rId137" xr:uid="{F0B9DD25-45AA-F04C-AA50-A4C6435A5668}"/>
+    <hyperlink ref="D48" r:id="rId138" location=":~:text=chr29.-,Table%201.,-Clinical%20summaries%20of" xr:uid="{D5584F66-E847-CF4B-9E7E-805326ACAED7}"/>
+    <hyperlink ref="D52" r:id="rId139" location=":~:text=and%20global%20populations.-,Results,-The%20carrier%20rates" xr:uid="{11BE8414-289F-1842-B272-D278AB59881F}"/>
+    <hyperlink ref="D56" r:id="rId140" xr:uid="{83600682-24F9-1C40-BDDF-1D74C5E16E1D}"/>
+    <hyperlink ref="D60" r:id="rId141" xr:uid="{3CF5D75F-E255-1745-BC88-1E6DBF01C580}"/>
+    <hyperlink ref="D23" r:id="rId142" xr:uid="{42506FAB-00AD-4446-970F-B5AD201D695C}"/>
+    <hyperlink ref="E107" r:id="rId143" display="16. Smaller expansions with 25-31 repeats have been reported in three affected individuals [Obayashi et al 2014]. link: https://jnnp.bmj.com/content/86/9/986" xr:uid="{5708B881-6B56-704C-88BD-EE98D6187B90}"/>
+    <hyperlink ref="D2" r:id="rId144" location=":~:text=underlying%20muscle%20degeneration.-,Results,-We%20report%2035" xr:uid="{8372C5E4-6CB5-B644-BA6D-8742C98A64F7}"/>
+    <hyperlink ref="D8" r:id="rId145" xr:uid="{F2CDD914-E3AF-934A-BDB8-6C912D12A281}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
